--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\ESCALETAS 7-8-9\ESCALETAS MAT 8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$K$1:$K$82</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="243">
   <si>
     <t>Asignatura</t>
   </si>
@@ -462,12 +457,6 @@
   </si>
   <si>
     <t xml:space="preserve">Actividad para analizar y plantear la solución a una situación problema </t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurso M </t>
   </si>
   <si>
     <t>Estadística con hoja de cálculo</t>
@@ -605,9 +594,6 @@
     <t xml:space="preserve">Banco de actividades </t>
   </si>
   <si>
-    <t>Recurso M1B_01</t>
-  </si>
-  <si>
     <t>Determina la población y la muestra</t>
   </si>
   <si>
@@ -675,15 +661,6 @@
   </si>
   <si>
     <t>Actividades sobre el tema La estadística</t>
-  </si>
-  <si>
-    <t>3°ESO</t>
-  </si>
-  <si>
-    <t>Banco de actividades: La estadística</t>
-  </si>
-  <si>
-    <t>MT_09_11</t>
   </si>
   <si>
     <t>Competencias: interpretación de los datos de pictogramas</t>
@@ -774,6 +751,24 @@
       </rPr>
       <t>÷</t>
     </r>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>MTC_09_11</t>
+  </si>
+  <si>
+    <t>MTP</t>
+  </si>
+  <si>
+    <t>MTP_09_11</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Recurso M1B-01</t>
   </si>
 </sst>
 </file>
@@ -985,105 +980,198 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1092,117 +1180,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1314,7 +1301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,1992 +1512,1956 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="54.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="54" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="69" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="72" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="11" style="69" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" style="72" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="73" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="73" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="54" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="73" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" style="70" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="69" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="71" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="73" customWidth="1"/>
-    <col min="19" max="19" width="22" style="73" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="73" customWidth="1"/>
-    <col min="21" max="21" width="26.42578125" style="73" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="54"/>
+    <col min="1" max="1" width="19.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="14" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11" style="13" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="22" style="14" customWidth="1"/>
+    <col min="20" max="20" width="39" style="14" customWidth="1"/>
+    <col min="21" max="21" width="26.42578125" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="46" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:21" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="46" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="3" t="s">
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="42"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>9</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="P4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="Q4" s="25">
+        <v>9</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="Q5" s="33">
+        <v>6</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="20">
+        <v>4</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>6</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="20">
         <v>5</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="50" t="s">
+      <c r="I7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="R3" s="52" t="s">
+      <c r="J7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>6</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="B8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="U3" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D8" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="20">
+        <v>6</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>6</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B9" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="D9" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="20">
+        <v>7</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="J9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="49" t="s">
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>9</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="20">
+        <v>8</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" s="32"/>
+      <c r="O10" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>6</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="U10" s="33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="20">
+        <v>9</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>6</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="20">
+        <v>10</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>9</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="20">
+        <v>11</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>6</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="20">
+        <v>12</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>9</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="20">
+        <v>13</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>6</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="20">
+        <v>14</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>9</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="U16" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="20">
+        <v>15</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>6</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="20">
+        <v>16</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>6</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="S18" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="T18" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="U18" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="20">
+        <v>17</v>
+      </c>
+      <c r="I19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="J19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="25">
         <v>9</v>
       </c>
-      <c r="R4" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S4" s="51" t="s">
+      <c r="R19" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S19" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="T4" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="U4" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="T19" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B20" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C20" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="57">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="D20" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="20">
+        <v>18</v>
+      </c>
+      <c r="I20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="M20" s="32"/>
+      <c r="N20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="33">
+        <v>6</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="U20" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="20">
+        <v>19</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>9</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="U21" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="20">
+        <v>20</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>9</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S22" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="U22" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="20">
+        <v>21</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>9</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="U23" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="20">
+        <v>22</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>9</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="U24" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="20">
+        <v>23</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="33">
+        <v>6</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T25" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="U25" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="20">
         <v>24</v>
       </c>
-      <c r="O5" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="50" t="s">
+      <c r="I26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="L26" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>9</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="S26" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="T26" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="20">
+        <v>25</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>9</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="S27" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="T27" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="U27" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="20">
+        <v>26</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="20">
+        <v>27</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="33">
         <v>6</v>
       </c>
-      <c r="R5" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S5" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T5" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="U5" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="R29" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S29" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T29" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="U29" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B30" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C30" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="57">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="D30" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="20">
+        <v>28</v>
+      </c>
+      <c r="I30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="J30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="50" t="s">
+      <c r="M30" s="32"/>
+      <c r="N30" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="P30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="61">
+      <c r="Q30" s="33">
         <v>6</v>
       </c>
-      <c r="R6" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S6" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T6" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="U6" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="61">
-        <v>6</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S7" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T7" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="U7" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="R30" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S30" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="T30" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="61">
-        <v>6</v>
-      </c>
-      <c r="R8" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S8" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T8" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="U8" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="51">
-        <v>9</v>
-      </c>
-      <c r="R9" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S9" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T9" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="U9" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="61">
-        <v>6</v>
-      </c>
-      <c r="R10" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="S10" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="U10" s="61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="61">
-        <v>6</v>
-      </c>
-      <c r="R11" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S11" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T11" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="U11" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="51">
-        <v>9</v>
-      </c>
-      <c r="R12" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S12" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T12" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="U12" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="57">
-        <v>11</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="61">
-        <v>6</v>
-      </c>
-      <c r="R13" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S13" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T13" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="U13" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="57">
-        <v>12</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="51">
-        <v>9</v>
-      </c>
-      <c r="R14" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S14" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T14" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="U14" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="7">
-        <v>14</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="61">
-        <v>6</v>
-      </c>
-      <c r="R15" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S15" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T15" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="51">
-        <v>9</v>
-      </c>
-      <c r="R16" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S16" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T16" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="U16" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="7">
-        <v>16</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="P17" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="61">
-        <v>6</v>
-      </c>
-      <c r="R17" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S17" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T17" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="U17" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="P18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="51">
-        <v>8</v>
-      </c>
-      <c r="R18" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S18" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="T18" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="U18" s="51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="P19" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="51">
-        <v>9</v>
-      </c>
-      <c r="R19" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S19" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T19" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="U19" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="57">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="61">
-        <v>6</v>
-      </c>
-      <c r="R20" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S20" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T20" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="U20" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="57">
-        <v>20</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="51">
-        <v>9</v>
-      </c>
-      <c r="R21" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S21" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="7">
-        <v>21</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="P22" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="51">
-        <v>9</v>
-      </c>
-      <c r="R22" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S22" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T22" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="U22" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="7">
-        <v>22</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="P23" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="51">
-        <v>9</v>
-      </c>
-      <c r="R23" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S23" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T23" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="U23" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="7">
-        <v>23</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="P24" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="51">
-        <v>9</v>
-      </c>
-      <c r="R24" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="S24" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="T24" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="U24" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="7">
-        <v>24</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="P25" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="61">
-        <v>6</v>
-      </c>
-      <c r="R25" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S25" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T25" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="U25" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="7">
-        <v>25</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="61">
-        <v>9</v>
-      </c>
-      <c r="R26" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="S26" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="T26" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="U26" s="61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" s="7">
-        <v>26</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="61">
-        <v>9</v>
-      </c>
-      <c r="R27" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="S27" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="T27" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="U27" s="61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="57">
-        <v>27</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="51"/>
-    </row>
-    <row r="29" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" s="57">
-        <v>28</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="P29" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="61">
-        <v>6</v>
-      </c>
-      <c r="R29" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="S29" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="T29" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="U29" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="P30" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="61">
-        <v>9</v>
-      </c>
-      <c r="R30" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="S30" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="T30" s="68" t="s">
+      <c r="U30" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="U30" s="61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="69" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="G31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="70"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-    </row>
-    <row r="32" spans="1:21" s="69" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="G32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="70"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-    </row>
-    <row r="33" spans="1:21" s="69" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="G33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="70"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-    </row>
-    <row r="46" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+    </row>
+    <row r="31" spans="1:21" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+    </row>
+    <row r="32" spans="1:21" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+    </row>
+    <row r="33" spans="1:5" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="46" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+    <row r="47" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+    <row r="48" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="14" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3522,16 +3473,16 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3542,7 +3493,7 @@
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>O29:O30 L29:L30 M28:M30 K28:K29</xm:sqref>
+          <xm:sqref>O29:O30 L29:L30 M28:M30 K28:K30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3554,7 +3505,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K30 I3:I30 K3:K27 P3:P30</xm:sqref>
+          <xm:sqref>P3:P30 I3:I30 K3:K27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="165">
   <si>
     <t>Asignatura</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Completa tablas de frecuencia</t>
   </si>
   <si>
-    <t>Actividad para completar datos en una tabal de frecuencias</t>
-  </si>
-  <si>
     <t>m9b</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
 </t>
   </si>
   <si>
-    <t>Actividad pensada para identificar y practicar las medidas de posición y las de dispersión</t>
-  </si>
-  <si>
     <t>Practica las medidas de posición y las medidas de dispersión</t>
   </si>
   <si>
@@ -541,6 +535,12 @@
   </si>
   <si>
     <t>Signo de división en la tabla no se puede cambiar</t>
+  </si>
+  <si>
+    <t>Actividad para completar datos en una tabla de frecuencias</t>
+  </si>
+  <si>
+    <t>Actividad para identificar y practicar las medidas de posición y las de dispersión</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1076,9 +1076,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,31 +1401,17 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1503,15 +1486,35 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1810,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:W4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,109 +1841,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="E1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="159" t="s">
+      <c r="I1" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="163" t="s">
+      <c r="J1" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="151" t="s">
+      <c r="L1" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="140" t="s">
+      <c r="M1" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141" t="s">
+      <c r="N1" s="168"/>
+      <c r="O1" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="143" t="s">
+      <c r="P1" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="138" t="s">
+      <c r="Q1" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="145" t="s">
+      <c r="R1" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="138" t="s">
+      <c r="S1" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="167" t="s">
+      <c r="T1" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="169" t="s">
+      <c r="U1" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="147" t="s">
-        <v>155</v>
-      </c>
-      <c r="W1" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="X1" s="114"/>
+      <c r="V1" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" s="113"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="152"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="142"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="115" t="s">
-        <v>157</v>
+      <c r="O2" s="170"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="114" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1953,60 +1956,60 @@
         <v>25</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="127" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="128">
+      <c r="H3" s="127">
         <v>1</v>
       </c>
-      <c r="I3" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="129" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="128" t="s">
+      <c r="I3" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="130" t="s">
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="131" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="130">
+      <c r="P3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="129">
         <v>9</v>
       </c>
-      <c r="R3" s="130" t="s">
+      <c r="R3" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="130" t="s">
+      <c r="S3" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="132" t="s">
+      <c r="U3" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="118" t="s">
-        <v>154</v>
-      </c>
-      <c r="W3" s="133">
+      <c r="V3" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="W3" s="132">
         <v>42432</v>
       </c>
-      <c r="X3" s="114" t="s">
-        <v>162</v>
+      <c r="X3" s="113" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2019,58 +2022,58 @@
         <v>25</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="172" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="119">
         <v>2</v>
       </c>
-      <c r="I4" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="173" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="120" t="s">
+      <c r="I4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="140" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="174" t="s">
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="122">
+      <c r="P4" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="121">
         <v>9</v>
       </c>
-      <c r="R4" s="122" t="s">
+      <c r="R4" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="122" t="s">
+      <c r="S4" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="124" t="s">
+      <c r="U4" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W4" s="171">
+      <c r="V4" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" s="138">
         <v>42435</v>
       </c>
-      <c r="X4" s="117"/>
+      <c r="X4" s="116"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2083,8 +2086,8 @@
         <v>25</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="4">
@@ -2093,7 +2096,7 @@
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="37" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -2106,33 +2109,33 @@
       <c r="N5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="40">
+      <c r="P5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="39">
         <v>6</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2145,8 +2148,8 @@
         <v>25</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="38" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="4">
@@ -2155,7 +2158,7 @@
       <c r="I6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="37" t="s">
         <v>47</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -2168,33 +2171,33 @@
       <c r="N6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="40">
+      <c r="P6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="39">
         <v>6</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="41" t="s">
+      <c r="T6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="42" t="s">
+      <c r="U6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2207,8 +2210,8 @@
         <v>25</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="39" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="4">
@@ -2217,8 +2220,8 @@
       <c r="I7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>52</v>
+      <c r="J7" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>30</v>
@@ -2228,61 +2231,61 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="P7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>6</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="40">
-        <v>6</v>
-      </c>
-      <c r="R7" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="42" t="s">
+      <c r="U7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="43" t="s">
+      <c r="H8" s="43">
+        <v>6</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="44" t="s">
         <v>57</v>
-      </c>
-      <c r="H8" s="44">
-        <v>6</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>58</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>30</v>
@@ -2292,35 +2295,35 @@
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="P8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>6</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="47">
-        <v>6</v>
-      </c>
-      <c r="R8" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="49" t="s">
+      <c r="U8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -2330,12 +2333,12 @@
         <v>24</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="108" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="109" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="12">
         <v>7</v>
@@ -2344,7 +2347,7 @@
         <v>27</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>27</v>
@@ -2355,7 +2358,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>27</v>
@@ -2370,19 +2373,19 @@
         <v>24</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
+      <c r="V9" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2392,12 +2395,12 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="110" t="s">
-        <v>67</v>
+      <c r="F10" s="96"/>
+      <c r="G10" s="109" t="s">
+        <v>66</v>
       </c>
       <c r="H10" s="3">
         <v>8</v>
@@ -2406,7 +2409,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>30</v>
@@ -2415,38 +2418,38 @@
         <v>28</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="110">
+        <v>6</v>
+      </c>
+      <c r="R10" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="111">
-        <v>6</v>
-      </c>
-      <c r="R10" s="111" t="s">
+      <c r="S10" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="S10" s="111" t="s">
+      <c r="T10" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="112" t="s">
+      <c r="U10" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="U10" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="V10" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
+      <c r="V10" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2456,12 +2459,12 @@
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="25" t="s">
-        <v>75</v>
+      <c r="F11" s="96"/>
+      <c r="G11" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="2">
         <v>9</v>
@@ -2470,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>30</v>
@@ -2480,35 +2483,35 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>6</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>6</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="28" t="s">
+      <c r="U11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2518,12 +2521,12 @@
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="110" t="s">
-        <v>80</v>
+      <c r="F12" s="96"/>
+      <c r="G12" s="109" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -2532,7 +2535,7 @@
         <v>27</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>27</v>
@@ -2543,7 +2546,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>27</v>
@@ -2558,19 +2561,19 @@
         <v>24</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
+      <c r="V12" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2580,12 +2583,12 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="25" t="s">
-        <v>84</v>
+      <c r="F13" s="96"/>
+      <c r="G13" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="H13" s="2">
         <v>11</v>
@@ -2594,7 +2597,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>30</v>
@@ -2604,35 +2607,35 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="P13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>6</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>6</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="U13" s="28" t="s">
+      <c r="U13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2642,134 +2645,136 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="96"/>
+      <c r="G14" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="2">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="23">
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="9">
         <v>9</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="U14" s="24" t="s">
+      <c r="S14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
+      <c r="V14" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="29" t="s">
+      <c r="C15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="29">
+        <v>13</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="30">
-        <v>13</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="32" t="s">
+      <c r="P15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>6</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="P15" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="34">
-        <v>6</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="U15" s="36" t="s">
+      <c r="U15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="67" t="s">
+      <c r="C16" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="108" t="s">
         <v>94</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="109" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="12">
         <v>14</v>
@@ -2778,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>27</v>
@@ -2789,7 +2794,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>27</v>
@@ -2804,60 +2809,60 @@
         <v>24</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U16" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="U16" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
+      <c r="V16" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="100" t="s">
+      <c r="C17" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="H17" s="68">
+        <v>15</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="69">
-        <v>15</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="71" t="s">
+      <c r="K17" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70" t="s">
+      <c r="O17" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="50" t="s">
+      <c r="P17" s="49" t="s">
         <v>27</v>
       </c>
       <c r="Q17" s="10">
@@ -2869,59 +2874,59 @@
       <c r="S17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="72" t="s">
-        <v>103</v>
+      <c r="T17" s="71" t="s">
+        <v>102</v>
       </c>
       <c r="U17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="91" t="s">
+      <c r="C18" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="73" t="s">
+      <c r="H18" s="68">
+        <v>16</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="69">
-        <v>16</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74" t="s">
+      <c r="O18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P18" s="50" t="s">
+      <c r="P18" s="49" t="s">
         <v>30</v>
       </c>
       <c r="Q18" s="6">
@@ -2934,34 +2939,34 @@
         <v>43</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
     </row>
     <row r="19" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="91" t="s">
+      <c r="C19" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="109" t="s">
         <v>110</v>
-      </c>
-      <c r="G19" s="110" t="s">
-        <v>111</v>
       </c>
       <c r="H19" s="3">
         <v>17</v>
@@ -2970,7 +2975,7 @@
         <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
@@ -2981,7 +2986,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>27</v>
@@ -2996,60 +3001,60 @@
         <v>24</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="U19" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
+      <c r="V19" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="91" t="s">
+      <c r="C20" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="H20" s="68">
+        <v>18</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="69">
-        <v>18</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="50" t="s">
+      <c r="P20" s="49" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="10">
@@ -3061,317 +3066,317 @@
       <c r="S20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="72" t="s">
-        <v>118</v>
+      <c r="T20" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="U20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="119" t="s">
+      <c r="C21" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="119">
+        <v>19</v>
+      </c>
+      <c r="I21" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="120">
-        <v>19</v>
-      </c>
-      <c r="I21" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="121" t="s">
+      <c r="K21" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="122" t="s">
-        <v>113</v>
-      </c>
-      <c r="P21" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="122">
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="121">
         <v>9</v>
       </c>
-      <c r="R21" s="122" t="s">
+      <c r="R21" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="U21" s="124" t="s">
+      <c r="S21" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W21" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="X21" s="117"/>
+      <c r="V21" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="X21" s="116"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="91" t="s">
+      <c r="C22" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="119" t="s">
+      <c r="H22" s="119">
+        <v>20</v>
+      </c>
+      <c r="I22" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="120">
-        <v>20</v>
-      </c>
-      <c r="I22" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="122" t="s">
+      <c r="K22" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="122" t="s">
+      <c r="P22" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="121">
+        <v>9</v>
+      </c>
+      <c r="R22" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="P22" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="122">
-        <v>9</v>
-      </c>
-      <c r="R22" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="122" t="s">
-        <v>125</v>
-      </c>
-      <c r="U22" s="124" t="s">
+      <c r="U22" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W22" s="171">
+      <c r="V22" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W22" s="138">
         <v>42436</v>
       </c>
-      <c r="X22" s="117"/>
+      <c r="X22" s="116"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="91" t="s">
+      <c r="C23" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="119" t="s">
+      <c r="H23" s="119">
+        <v>21</v>
+      </c>
+      <c r="I23" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="120">
-        <v>21</v>
-      </c>
-      <c r="I23" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="122" t="s">
+      <c r="K23" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="121">
+        <v>9</v>
+      </c>
+      <c r="R23" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="122" t="s">
-        <v>124</v>
-      </c>
-      <c r="P23" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="122">
-        <v>9</v>
-      </c>
-      <c r="R23" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="U23" s="124" t="s">
+      <c r="U23" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W23" s="171">
+      <c r="V23" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W23" s="138">
         <v>42436</v>
       </c>
-      <c r="X23" s="117"/>
+      <c r="X23" s="116"/>
     </row>
     <row r="24" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="119" t="s">
+      <c r="C24" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="119">
+        <v>22</v>
+      </c>
+      <c r="I24" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="121">
+        <v>9</v>
+      </c>
+      <c r="R24" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="120">
-        <v>22</v>
-      </c>
-      <c r="I24" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="122">
-        <v>9</v>
-      </c>
-      <c r="R24" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="U24" s="124" t="s">
+      <c r="U24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W24" s="171">
+      <c r="V24" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W24" s="138">
         <v>42436</v>
       </c>
-      <c r="X24" s="117"/>
+      <c r="X24" s="116"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="93"/>
-      <c r="G25" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="76">
+      <c r="C25" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="92"/>
+      <c r="G25" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="75">
         <v>23</v>
       </c>
-      <c r="I25" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="78" t="s">
+      <c r="I25" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="K25" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="P25" s="79" t="s">
+      <c r="O25" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="78" t="s">
         <v>27</v>
       </c>
       <c r="Q25" s="19">
@@ -3383,327 +3388,333 @@
       <c r="S25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="80" t="s">
-        <v>135</v>
+      <c r="T25" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="U25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="127">
+        <v>24</v>
+      </c>
+      <c r="I26" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="134" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="128">
-        <v>24</v>
-      </c>
-      <c r="I26" s="128" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="128" t="s">
+      <c r="K26" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="131">
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="130">
         <v>9</v>
       </c>
-      <c r="R26" s="131" t="s">
+      <c r="R26" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="131" t="s">
-        <v>137</v>
-      </c>
-      <c r="U26" s="135" t="s">
+      <c r="S26" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="U26" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W26" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="X26" s="117"/>
+      <c r="V26" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W26" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="X26" s="116"/>
     </row>
     <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="119" t="s">
+      <c r="C27" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="119">
+        <v>25</v>
+      </c>
+      <c r="I27" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="135">
+        <v>9</v>
+      </c>
+      <c r="R27" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="135" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="120">
-        <v>25</v>
-      </c>
-      <c r="I27" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="136">
-        <v>9</v>
-      </c>
-      <c r="R27" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="U27" s="137" t="s">
+      <c r="U27" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W27" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="X27" s="117"/>
+      <c r="V27" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W27" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="X27" s="116"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="52" t="s">
+      <c r="C28" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="119">
+        <v>26</v>
+      </c>
+      <c r="I28" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="119" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="120">
-        <v>26</v>
-      </c>
-      <c r="I28" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="122" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="121" t="s">
-        <v>143</v>
-      </c>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
+      <c r="K28" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="57" t="s">
+      <c r="C29" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="51">
+        <v>27</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="52">
-        <v>27</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="59" t="s">
+      <c r="P29" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="53">
+        <v>6</v>
+      </c>
+      <c r="R29" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="P29" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="54">
-        <v>6</v>
-      </c>
-      <c r="R29" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="S29" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="U29" s="56" t="s">
+      <c r="U29" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="60" t="s">
+      <c r="C30" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="60">
+        <v>28</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="61">
-        <v>28</v>
-      </c>
-      <c r="I30" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="63" t="s">
+      <c r="O30" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="K30" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62" t="s">
+      <c r="P30" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="64">
+        <v>6</v>
+      </c>
+      <c r="R30" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="O30" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="P30" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="65">
-        <v>6</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="U30" s="66" t="s">
+      <c r="U30" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G32" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="V32" s="126"/>
+      <c r="G32" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="V32" s="125"/>
     </row>
     <row r="35" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3720,12 +3731,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3753,7 +3758,7 @@
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P30 I3:I30 K3:K27</xm:sqref>
+          <xm:sqref>K3:K27 I3:I30 P3:P30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -1414,6 +1414,36 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1485,36 +1515,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,103 +1841,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="154" t="s">
+      <c r="I1" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="158" t="s">
+      <c r="J1" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="168" t="s">
+      <c r="M1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="168"/>
-      <c r="O1" s="169" t="s">
+      <c r="N1" s="145"/>
+      <c r="O1" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="171" t="s">
+      <c r="P1" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="173" t="s">
+      <c r="R1" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="166" t="s">
+      <c r="S1" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="162" t="s">
+      <c r="T1" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="164" t="s">
+      <c r="U1" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="142" t="s">
+      <c r="V1" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="144" t="s">
+      <c r="W1" s="154" t="s">
         <v>154</v>
       </c>
       <c r="X1" s="113"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="147"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="157"/>
       <c r="M2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="170"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="145"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="155"/>
       <c r="X2" s="114" t="s">
         <v>155</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="F22" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="175" t="s">
+      <c r="G22" s="142" t="s">
         <v>121</v>
       </c>
       <c r="H22" s="119">
@@ -3223,7 +3223,7 @@
       <c r="F23" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="175" t="s">
+      <c r="G23" s="142" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="119">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="E24" s="68"/>
       <c r="F24" s="90"/>
-      <c r="G24" s="175" t="s">
+      <c r="G24" s="142" t="s">
         <v>129</v>
       </c>
       <c r="H24" s="119">
@@ -3709,12 +3709,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3731,6 +3725,12 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="167">
   <si>
     <t>Asignatura</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Actividad para identificar y practicar las medidas de posición y las de dispersión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar al lenguaje colombiano, </t>
+  </si>
+  <si>
+    <t>Signo de división no se pudo cmabiar</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +700,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1007,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1335,15 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1401,9 +1404,6 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1417,33 +1417,6 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1516,6 +1489,77 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1811,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,104 +1885,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="164" t="s">
+      <c r="I1" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="168" t="s">
+      <c r="J1" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="170" t="s">
+      <c r="K1" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="156" t="s">
+      <c r="L1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="145" t="s">
+      <c r="M1" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="145"/>
-      <c r="O1" s="146" t="s">
+      <c r="N1" s="165"/>
+      <c r="O1" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="148" t="s">
+      <c r="P1" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="143" t="s">
+      <c r="Q1" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="150" t="s">
+      <c r="R1" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="143" t="s">
+      <c r="S1" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="172" t="s">
+      <c r="T1" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="174" t="s">
+      <c r="U1" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="152" t="s">
+      <c r="V1" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="154" t="s">
+      <c r="W1" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="113"/>
+      <c r="X1" s="110"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="157"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="144"/>
       <c r="M2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="114" t="s">
+      <c r="O2" s="167"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="111" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1957,54 +2001,54 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="81"/>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="124">
         <v>1</v>
       </c>
-      <c r="I3" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="128" t="s">
+      <c r="I3" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="127" t="s">
+      <c r="K3" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="129" t="s">
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="126" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="129">
+      <c r="Q3" s="126">
         <v>9</v>
       </c>
-      <c r="R3" s="129" t="s">
+      <c r="R3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="129" t="s">
+      <c r="S3" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="131" t="s">
+      <c r="U3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="117" t="s">
+      <c r="V3" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="W3" s="132">
+      <c r="W3" s="129">
         <v>42432</v>
       </c>
-      <c r="X3" s="113" t="s">
+      <c r="X3" s="110" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2023,54 +2067,54 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="83"/>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="116">
         <v>2</v>
       </c>
-      <c r="I4" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="140" t="s">
+      <c r="I4" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="119" t="s">
+      <c r="K4" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="141" t="s">
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="121">
+      <c r="P4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="118">
         <v>9</v>
       </c>
-      <c r="R4" s="121" t="s">
+      <c r="R4" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="121" t="s">
+      <c r="S4" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="124" t="s">
+      <c r="V4" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W4" s="138">
+      <c r="W4" s="134">
         <v>42435</v>
       </c>
-      <c r="X4" s="116"/>
+      <c r="X4" s="113"/>
     </row>
     <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
@@ -2130,9 +2174,9 @@
       <c r="U5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
@@ -2192,9 +2236,9 @@
       <c r="U6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
@@ -2254,9 +2298,9 @@
       <c r="U7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="85" t="s">
@@ -2318,9 +2362,9 @@
       <c r="U8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
@@ -2378,11 +2422,11 @@
       <c r="U9" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="115" t="s">
+      <c r="V9" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
@@ -2399,54 +2443,52 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="96"/>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="174">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="175" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="K10" s="175" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="9" t="s">
+      <c r="N10" s="175"/>
+      <c r="O10" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="110">
+      <c r="P10" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="178">
         <v>6</v>
       </c>
-      <c r="R10" s="110" t="s">
+      <c r="R10" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="110" t="s">
+      <c r="S10" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="111" t="s">
+      <c r="T10" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="112" t="s">
+      <c r="U10" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="V10" s="115" t="s">
-        <v>152</v>
-      </c>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
@@ -2506,9 +2548,9 @@
       <c r="U11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
@@ -2566,11 +2608,11 @@
       <c r="U12" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="115" t="s">
+      <c r="V12" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
@@ -2630,9 +2672,9 @@
       <c r="U13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
@@ -2649,50 +2691,52 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="182">
         <v>12</v>
       </c>
-      <c r="I14" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="137" t="s">
+      <c r="K14" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="9">
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="185" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="184">
         <v>9</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="9" t="s">
+      <c r="S14" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="U14" s="107" t="s">
+      <c r="U14" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="115" t="s">
+      <c r="V14" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
+      <c r="W14" s="187">
+        <v>42455</v>
+      </c>
+      <c r="X14" s="113"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="97" t="s">
@@ -2754,9 +2798,9 @@
       <c r="U15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
@@ -2814,13 +2858,13 @@
       <c r="U16" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="115" t="s">
+      <c r="V16" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
     </row>
-    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="89" t="s">
         <v>22</v>
       </c>
@@ -2880,11 +2924,11 @@
       <c r="U17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="89" t="s">
         <v>22</v>
       </c>
@@ -2944,11 +2988,11 @@
       <c r="U18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
     </row>
-    <row r="19" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="89" t="s">
         <v>22</v>
       </c>
@@ -2965,54 +3009,61 @@
       <c r="F19" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="G19" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="182">
         <v>17</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="K19" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="9">
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="185" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="184">
         <v>9</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="9" t="s">
+      <c r="S19" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="U19" s="107" t="s">
+      <c r="U19" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="115" t="s">
+      <c r="V19" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
+      <c r="W19" s="187">
+        <v>42455</v>
+      </c>
+      <c r="X19" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="89" t="s">
         <v>22</v>
       </c>
@@ -3072,11 +3123,11 @@
       <c r="U20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
     </row>
-    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>22</v>
       </c>
@@ -3091,56 +3142,56 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="90"/>
-      <c r="G21" s="118" t="s">
+      <c r="G21" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="119">
+      <c r="H21" s="116">
         <v>19</v>
       </c>
-      <c r="I21" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="121" t="s">
+      <c r="I21" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="120" t="s">
+      <c r="K21" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="121" t="s">
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="P21" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="121">
+      <c r="P21" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="118">
         <v>9</v>
       </c>
-      <c r="R21" s="121" t="s">
+      <c r="R21" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="121" t="s">
+      <c r="S21" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="U21" s="123" t="s">
+      <c r="U21" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="124" t="s">
+      <c r="V21" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W21" s="116" t="s">
+      <c r="W21" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="X21" s="116"/>
+      <c r="X21" s="113"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="89" t="s">
         <v>22</v>
       </c>
@@ -3157,56 +3208,56 @@
       <c r="F22" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="142" t="s">
+      <c r="G22" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="119">
+      <c r="H22" s="116">
         <v>20</v>
       </c>
-      <c r="I22" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="121" t="s">
+      <c r="I22" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="120" t="s">
+      <c r="K22" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="121" t="s">
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="121">
+      <c r="P22" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="118">
         <v>9</v>
       </c>
-      <c r="R22" s="121" t="s">
+      <c r="R22" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="121" t="s">
+      <c r="S22" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="U22" s="123" t="s">
+      <c r="U22" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="124" t="s">
+      <c r="V22" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W22" s="138">
+      <c r="W22" s="134">
         <v>42436</v>
       </c>
-      <c r="X22" s="116"/>
+      <c r="X22" s="113"/>
     </row>
-    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
         <v>22</v>
       </c>
@@ -3223,56 +3274,56 @@
       <c r="F23" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="142" t="s">
+      <c r="G23" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="119">
+      <c r="H23" s="116">
         <v>21</v>
       </c>
-      <c r="I23" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="121" t="s">
+      <c r="I23" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="K23" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="120" t="s">
+      <c r="K23" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="121" t="s">
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="121">
+      <c r="P23" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="118">
         <v>9</v>
       </c>
-      <c r="R23" s="121" t="s">
+      <c r="R23" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="121" t="s">
+      <c r="S23" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="U23" s="123" t="s">
+      <c r="U23" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="124" t="s">
+      <c r="V23" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W23" s="138">
+      <c r="W23" s="134">
         <v>42436</v>
       </c>
-      <c r="X23" s="116"/>
+      <c r="X23" s="113"/>
     </row>
-    <row r="24" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="89" t="s">
         <v>22</v>
       </c>
@@ -3287,54 +3338,54 @@
       </c>
       <c r="E24" s="68"/>
       <c r="F24" s="90"/>
-      <c r="G24" s="142" t="s">
+      <c r="G24" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="119">
+      <c r="H24" s="116">
         <v>22</v>
       </c>
-      <c r="I24" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="121" t="s">
+      <c r="I24" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="120" t="s">
+      <c r="K24" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="121">
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="118">
         <v>9</v>
       </c>
-      <c r="R24" s="121" t="s">
+      <c r="R24" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="S24" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="121" t="s">
+      <c r="S24" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="U24" s="123" t="s">
+      <c r="U24" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="124" t="s">
+      <c r="V24" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W24" s="138">
+      <c r="W24" s="134">
         <v>42436</v>
       </c>
-      <c r="X24" s="116"/>
+      <c r="X24" s="113"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91" t="s">
         <v>22</v>
       </c>
@@ -3394,11 +3445,11 @@
       <c r="U25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="116"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
     </row>
-    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100" t="s">
         <v>22</v>
       </c>
@@ -3413,54 +3464,54 @@
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="101"/>
-      <c r="G26" s="133" t="s">
+      <c r="G26" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="127">
-        <v>24</v>
-      </c>
-      <c r="I26" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="129" t="s">
+      <c r="H26" s="124">
+        <v>24</v>
+      </c>
+      <c r="I26" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="127" t="s">
+      <c r="K26" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="130">
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="127">
         <v>9</v>
       </c>
-      <c r="R26" s="130" t="s">
+      <c r="R26" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="130" t="s">
+      <c r="S26" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="U26" s="134" t="s">
+      <c r="U26" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="124" t="s">
+      <c r="V26" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W26" s="116" t="s">
+      <c r="W26" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="X26" s="116"/>
+      <c r="X26" s="113"/>
     </row>
-    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="102" t="s">
         <v>22</v>
       </c>
@@ -3475,54 +3526,54 @@
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="103"/>
-      <c r="G27" s="118" t="s">
+      <c r="G27" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="H27" s="119">
+      <c r="H27" s="116">
         <v>25</v>
       </c>
-      <c r="I27" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="121" t="s">
+      <c r="I27" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="K27" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="120" t="s">
+      <c r="K27" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="135">
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="132">
         <v>9</v>
       </c>
-      <c r="R27" s="135" t="s">
+      <c r="R27" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="S27" s="135" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="135" t="s">
+      <c r="S27" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="U27" s="136" t="s">
+      <c r="U27" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="124" t="s">
+      <c r="V27" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W27" s="116" t="s">
+      <c r="W27" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="X27" s="116"/>
+      <c r="X27" s="113"/>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="102" t="s">
         <v>22</v>
       </c>
@@ -3537,42 +3588,42 @@
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="103"/>
-      <c r="G28" s="118" t="s">
+      <c r="G28" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="119">
+      <c r="H28" s="116">
         <v>26</v>
       </c>
-      <c r="I28" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="121" t="s">
+      <c r="I28" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="K28" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="120" t="s">
+      <c r="K28" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="124" t="s">
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="W28" s="116"/>
-      <c r="X28" s="116"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="102" t="s">
         <v>22</v>
       </c>
@@ -3630,11 +3681,11 @@
       <c r="U29" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
     </row>
-    <row r="30" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104" t="s">
         <v>22</v>
       </c>
@@ -3692,15 +3743,17 @@
       <c r="U30" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G32" s="125" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G32" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="V32" s="125"/>
+      <c r="V32" s="122">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V35" t="s">
@@ -3709,6 +3762,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3725,12 +3784,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="169">
   <si>
     <t>Asignatura</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Interactivo que explica cómo dibujar diagramas circulares</t>
   </si>
   <si>
-    <t>Ajustar el texto al lenguaje colombiano, cambiar diagrama de sectores por diagrama circular, plantear el dibujo de algunos diagramas circulares</t>
-  </si>
-  <si>
     <t>Dibuja un diagrama de sectores</t>
   </si>
   <si>
@@ -547,6 +544,15 @@
   </si>
   <si>
     <t>Signo de división no se pudo cmabiar</t>
+  </si>
+  <si>
+    <t>no se necesita</t>
+  </si>
+  <si>
+    <t>Cambios se deben pedir a Pedro, los solicito el 27/03/2016</t>
+  </si>
+  <si>
+    <t>Ajustar el texto al lenguaje colombiano, cambiar diagrama de sectores por diagrama circular</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +712,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1027,27 +1039,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1339,13 +1339,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -1417,6 +1411,77 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1489,77 +1554,24 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1858,7 +1870,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,552 +1896,552 @@
     <col min="24" max="24" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="157" t="s">
+      <c r="K1" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="143" t="s">
+      <c r="L1" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="165" t="s">
+      <c r="M1" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="165"/>
-      <c r="O1" s="166" t="s">
+      <c r="N1" s="151"/>
+      <c r="O1" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="168" t="s">
+      <c r="P1" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="Q1" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="170" t="s">
+      <c r="R1" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="163" t="s">
+      <c r="S1" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="159" t="s">
+      <c r="T1" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="161" t="s">
+      <c r="U1" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="139" t="s">
+      <c r="V1" s="158" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="141" t="s">
+      <c r="X1" s="104"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="165"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="153"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="110"/>
     </row>
-    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="167"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="111" t="s">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="118">
+        <v>1</v>
+      </c>
+      <c r="I3" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="119" t="s">
         <v>155</v>
       </c>
+      <c r="K3" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="120">
+        <v>9</v>
+      </c>
+      <c r="R3" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" s="123">
+        <v>42432</v>
+      </c>
+      <c r="X3" s="104" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="124">
-        <v>1</v>
-      </c>
-      <c r="I3" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="124" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="110">
+        <v>2</v>
+      </c>
+      <c r="I4" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="126" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="126">
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="112">
         <v>9</v>
       </c>
-      <c r="R3" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="126" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="128" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="W3" s="129">
-        <v>42432</v>
-      </c>
-      <c r="X3" s="110" t="s">
-        <v>160</v>
-      </c>
+      <c r="R4" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W4" s="128">
+        <v>42435</v>
+      </c>
+      <c r="X4" s="107"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+    <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="135" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="116">
-        <v>2</v>
-      </c>
-      <c r="I4" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="136" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="116" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>6</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>6</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+    </row>
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>6</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="39">
+        <v>6</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="42">
+        <v>6</v>
+      </c>
+      <c r="R8" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="8">
+        <v>7</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="137" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="118">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="10">
         <v>9</v>
       </c>
-      <c r="R4" s="118" t="s">
+      <c r="R9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="120" t="s">
+      <c r="S9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W4" s="134">
-        <v>42435</v>
-      </c>
-      <c r="X4" s="113"/>
+      <c r="V9" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="39">
-        <v>6</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>6</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-    </row>
-    <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="39">
-        <v>6</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="U7" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-    </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="43">
-        <v>6</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="46">
-        <v>6</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-    </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="12">
-        <v>7</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>9</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2442,56 +2454,56 @@
         <v>61</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="173" t="s">
+      <c r="F10" s="92"/>
+      <c r="G10" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="174">
+      <c r="H10" s="135">
         <v>8</v>
       </c>
-      <c r="I10" s="175" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="176" t="s">
+      <c r="I10" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="175" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="175" t="s">
+      <c r="K10" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="175" t="s">
+      <c r="M10" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="175"/>
-      <c r="O10" s="176" t="s">
+      <c r="N10" s="136"/>
+      <c r="O10" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="177" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="178">
+      <c r="P10" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="139">
         <v>6</v>
       </c>
-      <c r="R10" s="178" t="s">
+      <c r="R10" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="178" t="s">
+      <c r="S10" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="179" t="s">
+      <c r="T10" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="180" t="s">
+      <c r="U10" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="V10" s="172"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2504,8 +2516,8 @@
         <v>61</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="20" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="2">
@@ -2514,7 +2526,7 @@
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="19" t="s">
         <v>75</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2527,33 +2539,33 @@
       <c r="N11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="25">
+      <c r="P11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="21">
         <v>6</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="T11" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="U11" s="27" t="s">
+      <c r="U11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
     </row>
-    <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2566,56 +2578,63 @@
         <v>61</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="109" t="s">
+      <c r="F12" s="92"/>
+      <c r="G12" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="183">
         <v>10</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="K12" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="9" t="s">
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="185">
+        <v>9</v>
+      </c>
+      <c r="R12" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="185" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>9</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" s="107" t="s">
+      <c r="U12" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
+      <c r="V12" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W12" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="X12" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2628,9 +2647,9 @@
         <v>61</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="24" t="s">
-        <v>83</v>
+      <c r="F13" s="92"/>
+      <c r="G13" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="H13" s="2">
         <v>11</v>
@@ -2638,8 +2657,8 @@
       <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="23" t="s">
-        <v>84</v>
+      <c r="J13" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>30</v>
@@ -2649,35 +2668,35 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="P13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>6</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>6</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="U13" s="27" t="s">
+      <c r="U13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2690,1084 +2709,1078 @@
         <v>61</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="181" t="s">
+      <c r="F14" s="92"/>
+      <c r="G14" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="143">
+        <v>12</v>
+      </c>
+      <c r="I14" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="182">
-        <v>12</v>
-      </c>
-      <c r="I14" s="183" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="184" t="s">
+      <c r="K14" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="145">
+        <v>9</v>
+      </c>
+      <c r="R14" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W14" s="148">
+        <v>42455</v>
+      </c>
+      <c r="X14" s="107"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="94"/>
+      <c r="G15" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="183" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="183" t="s">
+      <c r="H15" s="25">
+        <v>13</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>6</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="8">
+        <v>14</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="185" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="184">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="10">
         <v>9</v>
       </c>
-      <c r="R14" s="184" t="s">
+      <c r="R16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="184" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="184" t="s">
-        <v>88</v>
-      </c>
-      <c r="U14" s="186" t="s">
+      <c r="S16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W14" s="187">
-        <v>42455</v>
-      </c>
-      <c r="X14" s="113"/>
-    </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="29">
-        <v>13</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="33">
-        <v>6</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="12">
-        <v>14</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>9</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="U16" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
+      <c r="V16" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="99" t="s">
+      <c r="C17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="H17" s="64">
+        <v>15</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="68">
-        <v>15</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="70" t="s">
+      <c r="K17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69" t="s">
+      <c r="O17" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="O17" s="70" t="s">
+      <c r="P17" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>6</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>6</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="90" t="s">
+      <c r="C18" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="H18" s="64">
+        <v>16</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="68">
-        <v>16</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73" t="s">
+      <c r="O18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>6</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>6</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="U18" s="16" t="s">
+      <c r="U18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="90" t="s">
+      <c r="C19" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="181" t="s">
+      <c r="H19" s="143">
+        <v>17</v>
+      </c>
+      <c r="I19" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="182">
-        <v>17</v>
-      </c>
-      <c r="I19" s="183" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="184" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="183" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="183" t="s">
+      <c r="K19" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="184" t="s">
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="145">
+        <v>9</v>
+      </c>
+      <c r="R19" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="U19" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W19" s="148">
+        <v>42455</v>
+      </c>
+      <c r="X19" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y19" t="s">
         <v>165</v>
-      </c>
-      <c r="P19" s="185" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="184">
-        <v>9</v>
-      </c>
-      <c r="R19" s="184" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="184" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="U19" s="186" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W19" s="187">
-        <v>42455</v>
-      </c>
-      <c r="X19" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="90" t="s">
+      <c r="C20" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="H20" s="64">
+        <v>18</v>
+      </c>
+      <c r="I20" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="68">
-        <v>18</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="6" t="s">
+      <c r="P20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>6</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>6</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="115" t="s">
+      <c r="C21" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="110">
+        <v>19</v>
+      </c>
+      <c r="I21" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="116">
-        <v>19</v>
-      </c>
-      <c r="I21" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="117" t="s">
+      <c r="K21" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="118">
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="112">
         <v>9</v>
       </c>
-      <c r="R21" s="118" t="s">
+      <c r="R21" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="U21" s="120" t="s">
+      <c r="S21" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="U21" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W21" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="X21" s="113"/>
+      <c r="V21" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W21" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" s="107"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="90" t="s">
+      <c r="C22" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="138" t="s">
+      <c r="H22" s="110">
+        <v>20</v>
+      </c>
+      <c r="I22" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="116">
-        <v>20</v>
-      </c>
-      <c r="I22" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="118" t="s">
+      <c r="K22" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118" t="s">
+      <c r="P22" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="112">
+        <v>9</v>
+      </c>
+      <c r="R22" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="118">
-        <v>9</v>
-      </c>
-      <c r="R22" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="U22" s="120" t="s">
+      <c r="U22" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W22" s="134">
+      <c r="V22" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W22" s="128">
         <v>42436</v>
       </c>
-      <c r="X22" s="113"/>
+      <c r="X22" s="107"/>
     </row>
     <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="90" t="s">
+      <c r="C23" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="138" t="s">
+      <c r="H23" s="110">
+        <v>21</v>
+      </c>
+      <c r="I23" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="116">
-        <v>21</v>
-      </c>
-      <c r="I23" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="118" t="s">
+      <c r="K23" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="112">
+        <v>9</v>
+      </c>
+      <c r="R23" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="K23" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="P23" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="118">
-        <v>9</v>
-      </c>
-      <c r="R23" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="U23" s="120" t="s">
+      <c r="U23" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W23" s="134">
+      <c r="V23" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" s="128">
         <v>42436</v>
       </c>
-      <c r="X23" s="113"/>
+      <c r="X23" s="107"/>
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="138" t="s">
+      <c r="C24" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="110">
+        <v>22</v>
+      </c>
+      <c r="I24" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="112">
+        <v>9</v>
+      </c>
+      <c r="R24" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="116">
-        <v>22</v>
-      </c>
-      <c r="I24" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="118">
-        <v>9</v>
-      </c>
-      <c r="R24" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="U24" s="120" t="s">
+      <c r="U24" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W24" s="134">
+      <c r="V24" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W24" s="128">
         <v>42436</v>
       </c>
-      <c r="X24" s="113"/>
+      <c r="X24" s="107"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="75" t="s">
+      <c r="C25" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="74" t="s">
+      <c r="F25" s="88"/>
+      <c r="G25" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="71">
+        <v>23</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="75">
-        <v>23</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="77" t="s">
+      <c r="P25" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>6</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="P25" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>6</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="U25" s="20" t="s">
+      <c r="U25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="130" t="s">
+      <c r="H26" s="118">
+        <v>24</v>
+      </c>
+      <c r="I26" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="124">
-        <v>24</v>
-      </c>
-      <c r="I26" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="126" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="124" t="s">
+      <c r="K26" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="127">
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="121">
         <v>9</v>
       </c>
-      <c r="R26" s="127" t="s">
+      <c r="R26" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="U26" s="131" t="s">
+      <c r="S26" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="U26" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W26" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="X26" s="113"/>
+      <c r="V26" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="X26" s="107"/>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="115" t="s">
+      <c r="C27" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="110">
+        <v>25</v>
+      </c>
+      <c r="I27" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="H27" s="116">
-        <v>25</v>
-      </c>
-      <c r="I27" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="118" t="s">
+      <c r="K27" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="126">
+        <v>9</v>
+      </c>
+      <c r="R27" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="K27" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="132">
-        <v>9</v>
-      </c>
-      <c r="R27" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="U27" s="133" t="s">
+      <c r="U27" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W27" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="X27" s="113"/>
+      <c r="V27" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W27" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="X27" s="107"/>
     </row>
     <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="115" t="s">
+      <c r="H28" s="110">
+        <v>26</v>
+      </c>
+      <c r="I28" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="116">
-        <v>26</v>
-      </c>
-      <c r="I28" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="W28" s="113"/>
-      <c r="X28" s="113"/>
+      <c r="K28" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="W28" s="107"/>
+      <c r="X28" s="107"/>
     </row>
     <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="56" t="s">
+      <c r="C29" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="47">
+        <v>27</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="51">
-        <v>27</v>
-      </c>
-      <c r="I29" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="58" t="s">
+      <c r="K29" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="O29" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" s="58" t="s">
+      <c r="P29" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="49">
+        <v>6</v>
+      </c>
+      <c r="R29" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="53">
-        <v>6</v>
-      </c>
-      <c r="R29" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="S29" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="U29" s="55" t="s">
+      <c r="U29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="59" t="s">
+      <c r="C30" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="56">
+        <v>28</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="60">
-        <v>28</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="62" t="s">
+      <c r="K30" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61" t="s">
+      <c r="O30" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="O30" s="62" t="s">
+      <c r="P30" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="60">
+        <v>6</v>
+      </c>
+      <c r="R30" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="P30" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="64">
-        <v>6</v>
-      </c>
-      <c r="R30" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="U30" s="65" t="s">
+      <c r="U30" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G32" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="V32" s="122">
+      <c r="G32" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="V32" s="116">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3784,6 +3797,12 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="168">
   <si>
     <t>Asignatura</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>Secuencia de imágenes que muestra como calcular distintos parámetros estadísticos con una hoja de cálculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para el recurso hacer una introducción breve al programa de EXCEL, y separar por pestañas los tipos de medidas estadísticas a hallar. Proponer una practica breve </t>
   </si>
   <si>
     <t>La moda</t>
@@ -615,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +715,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1031,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1455,31 +1458,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1554,24 +1548,49 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1870,7 +1889,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,105 +1916,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="170" t="s">
+      <c r="F1" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="170" t="s">
+      <c r="H1" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="174" t="s">
+      <c r="J1" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="176" t="s">
+      <c r="K1" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="162" t="s">
+      <c r="L1" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="151" t="s">
+      <c r="M1" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="152" t="s">
+      <c r="N1" s="181"/>
+      <c r="O1" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="154" t="s">
+      <c r="P1" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="Q1" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="156" t="s">
+      <c r="R1" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="149" t="s">
+      <c r="S1" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="178" t="s">
+      <c r="T1" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="180" t="s">
+      <c r="U1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="158" t="s">
+      <c r="V1" s="155" t="s">
+        <v>151</v>
+      </c>
+      <c r="W1" s="157" t="s">
         <v>152</v>
-      </c>
-      <c r="W1" s="160" t="s">
-        <v>153</v>
       </c>
       <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="163"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="160"/>
       <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="161"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="158"/>
       <c r="X2" s="105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2042,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K3" s="118" t="s">
         <v>27</v>
@@ -2055,13 +2074,13 @@
         <v>32</v>
       </c>
       <c r="V3" s="108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W3" s="123">
         <v>42432</v>
       </c>
       <c r="X3" s="104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,7 +2108,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="110" t="s">
         <v>27</v>
@@ -2121,7 +2140,7 @@
         <v>36</v>
       </c>
       <c r="V4" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W4" s="128">
         <v>42435</v>
@@ -2277,7 +2296,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>30</v>
@@ -2435,7 +2454,7 @@
         <v>36</v>
       </c>
       <c r="V9" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W9" s="107"/>
       <c r="X9" s="107"/>
@@ -2579,58 +2598,58 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="92"/>
-      <c r="G12" s="182" t="s">
+      <c r="G12" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="183">
+      <c r="H12" s="150">
         <v>10</v>
       </c>
-      <c r="I12" s="184" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="185" t="s">
+      <c r="I12" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="184" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="184" t="s">
+      <c r="K12" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="185">
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="152">
         <v>9</v>
       </c>
-      <c r="R12" s="185" t="s">
+      <c r="R12" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="185" t="s">
+      <c r="S12" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="187" t="s">
+      <c r="U12" s="154" t="s">
         <v>36</v>
       </c>
       <c r="V12" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W12" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="X12" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y12" t="s">
         <v>166</v>
-      </c>
-      <c r="X12" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2750,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="V14" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W14" s="148">
         <v>42455</v>
@@ -2836,51 +2855,51 @@
       </c>
       <c r="E16" s="62"/>
       <c r="F16" s="84"/>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="189">
         <v>14</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="I16" s="189" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="8" t="s">
+      <c r="K16" s="189" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="10">
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="190">
         <v>9</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="10" t="s">
+      <c r="S16" s="190" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="U16" s="102" t="s">
+      <c r="U16" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="W16" s="107"/>
+      <c r="V16" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="W16" s="193">
+        <v>42456</v>
+      </c>
       <c r="X16" s="107"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,10 +2917,10 @@
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="63" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="64">
         <v>15</v>
@@ -2910,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" s="65" t="s">
         <v>30</v>
@@ -2920,10 +2939,10 @@
       </c>
       <c r="M17" s="65"/>
       <c r="N17" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="66" t="s">
         <v>99</v>
-      </c>
-      <c r="O17" s="66" t="s">
-        <v>100</v>
       </c>
       <c r="P17" s="45" t="s">
         <v>27</v>
@@ -2938,7 +2957,7 @@
         <v>43</v>
       </c>
       <c r="T17" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U17" s="13" t="s">
         <v>45</v>
@@ -2962,10 +2981,10 @@
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="68" t="s">
         <v>102</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>103</v>
       </c>
       <c r="H18" s="64">
         <v>16</v>
@@ -2974,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" s="69" t="s">
         <v>30</v>
@@ -2984,10 +3003,10 @@
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="P18" s="45" t="s">
         <v>30</v>
@@ -3002,7 +3021,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>45</v>
@@ -3026,10 +3045,10 @@
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="142" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="142" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="143">
         <v>17</v>
@@ -3038,7 +3057,7 @@
         <v>27</v>
       </c>
       <c r="J19" s="145" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" s="144" t="s">
         <v>27</v>
@@ -3049,7 +3068,7 @@
       <c r="M19" s="144"/>
       <c r="N19" s="144"/>
       <c r="O19" s="145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P19" s="146" t="s">
         <v>27</v>
@@ -3064,22 +3083,22 @@
         <v>24</v>
       </c>
       <c r="T19" s="145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U19" s="147" t="s">
         <v>36</v>
       </c>
       <c r="V19" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W19" s="148">
         <v>42455</v>
       </c>
       <c r="X19" s="107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,10 +3116,10 @@
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="68" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="64">
         <v>18</v>
@@ -3109,7 +3128,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" s="69" t="s">
         <v>30</v>
@@ -3122,7 +3141,7 @@
         <v>84</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P20" s="45" t="s">
         <v>27</v>
@@ -3137,7 +3156,7 @@
         <v>43</v>
       </c>
       <c r="T20" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U20" s="13" t="s">
         <v>45</v>
@@ -3162,7 +3181,7 @@
       <c r="E21" s="64"/>
       <c r="F21" s="86"/>
       <c r="G21" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="110">
         <v>19</v>
@@ -3171,7 +3190,7 @@
         <v>27</v>
       </c>
       <c r="J21" s="112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="111" t="s">
         <v>27</v>
@@ -3182,7 +3201,7 @@
       <c r="M21" s="111"/>
       <c r="N21" s="111"/>
       <c r="O21" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P21" s="113" t="s">
         <v>27</v>
@@ -3197,16 +3216,16 @@
         <v>24</v>
       </c>
       <c r="T21" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U21" s="114" t="s">
         <v>36</v>
       </c>
       <c r="V21" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W21" s="107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X21" s="107"/>
     </row>
@@ -3225,10 +3244,10 @@
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="132" t="s">
         <v>119</v>
-      </c>
-      <c r="G22" s="132" t="s">
-        <v>120</v>
       </c>
       <c r="H22" s="110">
         <v>20</v>
@@ -3237,7 +3256,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K22" s="111" t="s">
         <v>27</v>
@@ -3248,7 +3267,7 @@
       <c r="M22" s="111"/>
       <c r="N22" s="111"/>
       <c r="O22" s="112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P22" s="113" t="s">
         <v>27</v>
@@ -3263,13 +3282,13 @@
         <v>24</v>
       </c>
       <c r="T22" s="112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U22" s="114" t="s">
         <v>36</v>
       </c>
       <c r="V22" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W22" s="128">
         <v>42436</v>
@@ -3291,10 +3310,10 @@
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="132" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="132" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="110">
         <v>21</v>
@@ -3303,7 +3322,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" s="111" t="s">
         <v>27</v>
@@ -3314,7 +3333,7 @@
       <c r="M23" s="111"/>
       <c r="N23" s="111"/>
       <c r="O23" s="112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P23" s="113" t="s">
         <v>27</v>
@@ -3329,13 +3348,13 @@
         <v>24</v>
       </c>
       <c r="T23" s="112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U23" s="114" t="s">
         <v>36</v>
       </c>
       <c r="V23" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W23" s="128">
         <v>42436</v>
@@ -3358,7 +3377,7 @@
       <c r="E24" s="64"/>
       <c r="F24" s="86"/>
       <c r="G24" s="132" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="110">
         <v>22</v>
@@ -3367,7 +3386,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K24" s="111" t="s">
         <v>27</v>
@@ -3391,13 +3410,13 @@
         <v>24</v>
       </c>
       <c r="T24" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U24" s="114" t="s">
         <v>36</v>
       </c>
       <c r="V24" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W24" s="128">
         <v>42436</v>
@@ -3422,7 +3441,7 @@
       </c>
       <c r="F25" s="88"/>
       <c r="G25" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="71">
         <v>23</v>
@@ -3444,7 +3463,7 @@
         <v>58</v>
       </c>
       <c r="O25" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P25" s="74" t="s">
         <v>27</v>
@@ -3459,7 +3478,7 @@
         <v>43</v>
       </c>
       <c r="T25" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U25" s="16" t="s">
         <v>45</v>
@@ -3479,21 +3498,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="97"/>
       <c r="G26" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="118">
+        <v>24</v>
+      </c>
+      <c r="I26" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="120" t="s">
         <v>134</v>
-      </c>
-      <c r="H26" s="118">
-        <v>24</v>
-      </c>
-      <c r="I26" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="120" t="s">
-        <v>135</v>
       </c>
       <c r="K26" s="118" t="s">
         <v>27</v>
@@ -3517,16 +3536,16 @@
         <v>24</v>
       </c>
       <c r="T26" s="121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U26" s="125" t="s">
         <v>36</v>
       </c>
       <c r="V26" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W26" s="107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X26" s="107"/>
     </row>
@@ -3541,12 +3560,12 @@
         <v>24</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="99"/>
       <c r="G27" s="109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="110">
         <v>25</v>
@@ -3555,7 +3574,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K27" s="111" t="s">
         <v>27</v>
@@ -3579,16 +3598,16 @@
         <v>24</v>
       </c>
       <c r="T27" s="126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U27" s="127" t="s">
         <v>36</v>
       </c>
       <c r="V27" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W27" s="107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X27" s="107"/>
     </row>
@@ -3603,12 +3622,12 @@
         <v>24</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="99"/>
       <c r="G28" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" s="110">
         <v>26</v>
@@ -3617,13 +3636,13 @@
         <v>30</v>
       </c>
       <c r="J28" s="112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K28" s="111" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M28" s="111"/>
       <c r="N28" s="111"/>
@@ -3637,7 +3656,7 @@
       <c r="T28" s="112"/>
       <c r="U28" s="114"/>
       <c r="V28" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W28" s="107"/>
       <c r="X28" s="107"/>
@@ -3653,21 +3672,21 @@
         <v>24</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="99"/>
       <c r="G29" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="47">
+        <v>27</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="54" t="s">
         <v>142</v>
-      </c>
-      <c r="H29" s="47">
-        <v>27</v>
-      </c>
-      <c r="I29" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="54" t="s">
-        <v>143</v>
       </c>
       <c r="K29" s="53" t="s">
         <v>30</v>
@@ -3680,7 +3699,7 @@
         <v>84</v>
       </c>
       <c r="O29" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P29" s="48" t="s">
         <v>27</v>
@@ -3695,7 +3714,7 @@
         <v>43</v>
       </c>
       <c r="T29" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U29" s="51" t="s">
         <v>45</v>
@@ -3715,12 +3734,12 @@
         <v>24</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="101"/>
       <c r="G30" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" s="56">
         <v>28</v>
@@ -3729,7 +3748,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30" s="57" t="s">
         <v>30</v>
@@ -3739,10 +3758,10 @@
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="O30" s="58" t="s">
         <v>148</v>
-      </c>
-      <c r="O30" s="58" t="s">
-        <v>149</v>
       </c>
       <c r="P30" s="59" t="s">
         <v>30</v>
@@ -3757,7 +3776,7 @@
         <v>43</v>
       </c>
       <c r="T30" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U30" s="61" t="s">
         <v>45</v>
@@ -3768,19 +3787,25 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G32" s="116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V32" s="116">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3797,12 +3822,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -18,6 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="169">
   <si>
     <t>Asignatura</t>
   </si>
@@ -234,9 +235,6 @@
     <t xml:space="preserve">Interactivo que permite aprender en qué consiste la representación mediante el diagrama de barras, circular y el histograma. </t>
   </si>
   <si>
-    <t>Complementar el recurso con la presentación del histograma, cambiar el nombre de diagrama de sectores por diagrama circular y ajustar el lenguaje al propio colombiano. Eliminar la pestaña de uso de Excel</t>
-  </si>
-  <si>
     <t>El diagrama de barras y el de sectores. El uso de Excel</t>
   </si>
   <si>
@@ -550,6 +548,12 @@
   </si>
   <si>
     <t>Ajustar el texto al lenguaje colombiano, cambiar diagrama de sectores por diagrama circular</t>
+  </si>
+  <si>
+    <t>cambiar el nombre de diagrama de sectores por diagrama circular y ajustar el lenguaje al propio colombiano. Eliminar la pestaña de uso de Excel</t>
+  </si>
+  <si>
+    <t>Cambios se deben pedir a Pedro, los solicito el 28/03/2016</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1057,18 +1061,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1338,16 +1333,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,6 +1464,37 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1575,22 +1594,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1888,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,175 +1919,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="169" t="s">
+      <c r="G1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="167" t="s">
+      <c r="I1" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="171" t="s">
+      <c r="J1" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="173" t="s">
+      <c r="K1" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="159" t="s">
+      <c r="L1" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="181" t="s">
+      <c r="M1" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="181"/>
-      <c r="O1" s="182" t="s">
+      <c r="N1" s="186"/>
+      <c r="O1" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="184" t="s">
+      <c r="P1" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="179" t="s">
+      <c r="Q1" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="186" t="s">
+      <c r="R1" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="179" t="s">
+      <c r="S1" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="175" t="s">
+      <c r="T1" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="177" t="s">
+      <c r="U1" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="155" t="s">
+      <c r="V1" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="157" t="s">
-        <v>152</v>
-      </c>
-      <c r="X1" s="104"/>
+      <c r="X1" s="99"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="162"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="160"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="165"/>
       <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="183"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="105" t="s">
-        <v>153</v>
+      <c r="O2" s="188"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="100" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="117" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="118">
+      <c r="H3" s="112">
         <v>1</v>
       </c>
-      <c r="I3" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="118" t="s">
+      <c r="I3" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="120" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="120">
+      <c r="P3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="114">
         <v>9</v>
       </c>
-      <c r="R3" s="120" t="s">
+      <c r="R3" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="120" t="s">
+      <c r="S3" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="122" t="s">
+      <c r="U3" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="W3" s="123">
+      <c r="V3" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="W3" s="117">
         <v>42432</v>
       </c>
-      <c r="X3" s="104" t="s">
-        <v>158</v>
+      <c r="X3" s="99" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2097,58 +2100,58 @@
         <v>25</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="129" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="110">
+      <c r="H4" s="104">
         <v>2</v>
       </c>
-      <c r="I4" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="110" t="s">
+      <c r="I4" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="131" t="s">
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="112">
+      <c r="P4" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="106">
         <v>9</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="112" t="s">
+      <c r="S4" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="114" t="s">
+      <c r="U4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W4" s="128">
+      <c r="V4" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W4" s="122">
         <v>42435</v>
       </c>
-      <c r="X4" s="107"/>
+      <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2161,8 +2164,8 @@
         <v>25</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="77"/>
+      <c r="G5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="3">
@@ -2171,7 +2174,7 @@
       <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="30" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -2184,33 +2187,33 @@
       <c r="N5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="35">
+      <c r="P5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="32">
         <v>6</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2223,8 +2226,8 @@
         <v>25</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="77"/>
+      <c r="G6" s="31" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="3">
@@ -2233,7 +2236,7 @@
       <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="30" t="s">
         <v>47</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -2246,33 +2249,33 @@
       <c r="N6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="35">
+      <c r="P6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="32">
         <v>6</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="37" t="s">
+      <c r="U6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2285,8 +2288,8 @@
         <v>25</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="31" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="3">
@@ -2295,8 +2298,8 @@
       <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>161</v>
+      <c r="J7" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>30</v>
@@ -2308,159 +2311,164 @@
       <c r="N7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="35">
+      <c r="P7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="32">
         <v>6</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="U7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="36">
         <v>6</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="40" t="s">
+      <c r="I8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="42">
+      <c r="P8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="39">
         <v>6</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="R8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="43" t="s">
+      <c r="T8" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="103" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="156">
         <v>7</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="10" t="s">
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="157">
+        <v>9</v>
+      </c>
+      <c r="R9" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="157" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>9</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="102" t="s">
+      <c r="U9" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
+      <c r="V9" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="88" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2473,56 +2481,56 @@
         <v>61</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="134" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="129">
+        <v>8</v>
+      </c>
+      <c r="I10" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="135">
-        <v>8</v>
-      </c>
-      <c r="I10" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="137" t="s">
+      <c r="K10" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="136" t="s">
+      <c r="N10" s="130"/>
+      <c r="O10" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="136"/>
-      <c r="O10" s="137" t="s">
+      <c r="P10" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="133">
+        <v>6</v>
+      </c>
+      <c r="R10" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="139">
-        <v>6</v>
-      </c>
-      <c r="R10" s="139" t="s">
+      <c r="S10" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="139" t="s">
+      <c r="T10" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="140" t="s">
+      <c r="U10" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="141" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" s="133"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="88" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2535,9 +2543,9 @@
         <v>61</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="20" t="s">
-        <v>74</v>
+      <c r="F11" s="89"/>
+      <c r="G11" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="H11" s="2">
         <v>9</v>
@@ -2545,8 +2553,8 @@
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>75</v>
+      <c r="J11" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>30</v>
@@ -2556,35 +2564,35 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="P11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>6</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>6</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="U11" s="23" t="s">
+      <c r="U11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="88" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2597,63 +2605,63 @@
         <v>61</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="149" t="s">
+      <c r="F12" s="89"/>
+      <c r="G12" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="144">
+        <v>10</v>
+      </c>
+      <c r="I12" s="145" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="150">
-        <v>10</v>
-      </c>
-      <c r="I12" s="151" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="152" t="s">
+      <c r="K12" s="145" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="145" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="146">
+        <v>9</v>
+      </c>
+      <c r="R12" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="151" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="151" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="P12" s="153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="152">
-        <v>9</v>
-      </c>
-      <c r="R12" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="152" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" s="154" t="s">
+      <c r="U12" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W12" s="107" t="s">
+      <c r="V12" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W12" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="X12" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y12" t="s">
         <v>165</v>
-      </c>
-      <c r="X12" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="88" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2666,9 +2674,9 @@
         <v>61</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="20" t="s">
-        <v>82</v>
+      <c r="F13" s="89"/>
+      <c r="G13" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="H13" s="2">
         <v>11</v>
@@ -2676,8 +2684,8 @@
       <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>83</v>
+      <c r="J13" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>30</v>
@@ -2687,35 +2695,35 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="P13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>6</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>6</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="23" t="s">
+      <c r="U13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="88" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2728,223 +2736,223 @@
         <v>61</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="142" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="137">
+        <v>12</v>
+      </c>
+      <c r="I14" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="143">
-        <v>12</v>
-      </c>
-      <c r="I14" s="144" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="144" t="s">
+      <c r="K14" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="145">
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="139">
         <v>9</v>
       </c>
-      <c r="R14" s="145" t="s">
+      <c r="R14" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="145" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="147" t="s">
+      <c r="S14" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W14" s="148">
+      <c r="V14" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W14" s="142">
         <v>42455</v>
       </c>
-      <c r="X14" s="107"/>
+      <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="91"/>
+      <c r="G15" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="22">
+        <v>13</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="25">
-        <v>13</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="27" t="s">
+      <c r="P15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>6</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>6</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="188" t="s">
+      <c r="H16" s="150">
+        <v>14</v>
+      </c>
+      <c r="I16" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="189">
-        <v>14</v>
-      </c>
-      <c r="I16" s="189" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="190" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="189" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="189" t="s">
+      <c r="K16" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="191" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="190">
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="151">
         <v>9</v>
       </c>
-      <c r="R16" s="190" t="s">
+      <c r="R16" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="190" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="190" t="s">
-        <v>93</v>
-      </c>
-      <c r="U16" s="192" t="s">
+      <c r="S16" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="U16" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W16" s="193">
+      <c r="V16" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W16" s="154">
         <v>42456</v>
       </c>
-      <c r="X16" s="107"/>
+      <c r="X16" s="101"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="95" t="s">
+      <c r="C17" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="H17" s="61">
+        <v>15</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="64">
-        <v>15</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="66" t="s">
+      <c r="K17" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65" t="s">
+      <c r="O17" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="O17" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="42" t="s">
         <v>27</v>
       </c>
       <c r="Q17" s="6">
@@ -2956,59 +2964,59 @@
       <c r="S17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="U17" s="13" t="s">
+      <c r="T17" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="86" t="s">
+      <c r="C18" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="61"/>
+      <c r="F18" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="H18" s="61">
+        <v>16</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="64">
-        <v>16</v>
-      </c>
-      <c r="I18" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69" t="s">
+      <c r="O18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P18" s="45" t="s">
+      <c r="P18" s="42" t="s">
         <v>30</v>
       </c>
       <c r="Q18" s="4">
@@ -3021,129 +3029,129 @@
         <v>43</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="U18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="86" t="s">
+      <c r="C19" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="142" t="s">
+      <c r="H19" s="137">
+        <v>17</v>
+      </c>
+      <c r="I19" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="143">
-        <v>17</v>
-      </c>
-      <c r="I19" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="145" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="144" t="s">
+      <c r="K19" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="145" t="s">
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="139">
+        <v>9</v>
+      </c>
+      <c r="R19" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W19" s="142">
+        <v>42455</v>
+      </c>
+      <c r="X19" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y19" t="s">
         <v>163</v>
-      </c>
-      <c r="P19" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="145">
-        <v>9</v>
-      </c>
-      <c r="R19" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="145" t="s">
-        <v>108</v>
-      </c>
-      <c r="U19" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W19" s="148">
-        <v>42455</v>
-      </c>
-      <c r="X19" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="86" t="s">
+      <c r="C20" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="H20" s="61">
+        <v>18</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="64">
-        <v>18</v>
-      </c>
-      <c r="I20" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="45" t="s">
+      <c r="P20" s="42" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="6">
@@ -3155,647 +3163,647 @@
       <c r="S20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="U20" s="13" t="s">
+      <c r="T20" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="109" t="s">
+      <c r="C21" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="104">
+        <v>19</v>
+      </c>
+      <c r="I21" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="110">
-        <v>19</v>
-      </c>
-      <c r="I21" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="111" t="s">
+      <c r="K21" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="P21" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="112">
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="106">
         <v>9</v>
       </c>
-      <c r="R21" s="112" t="s">
+      <c r="R21" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="U21" s="114" t="s">
+      <c r="S21" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="U21" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W21" s="107" t="s">
-        <v>160</v>
-      </c>
-      <c r="X21" s="107"/>
+      <c r="V21" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W21" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="X21" s="101"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="86" t="s">
+      <c r="C22" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="132" t="s">
+      <c r="H22" s="104">
+        <v>20</v>
+      </c>
+      <c r="I22" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="110">
-        <v>20</v>
-      </c>
-      <c r="I22" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="112" t="s">
+      <c r="K22" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112" t="s">
+      <c r="P22" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="106">
+        <v>9</v>
+      </c>
+      <c r="R22" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="112">
-        <v>9</v>
-      </c>
-      <c r="R22" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="U22" s="114" t="s">
+      <c r="U22" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W22" s="128">
+      <c r="V22" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W22" s="122">
         <v>42436</v>
       </c>
-      <c r="X22" s="107"/>
+      <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="86" t="s">
+      <c r="C23" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="61"/>
+      <c r="F23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="132" t="s">
+      <c r="H23" s="104">
+        <v>21</v>
+      </c>
+      <c r="I23" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="110">
-        <v>21</v>
-      </c>
-      <c r="I23" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="112" t="s">
+      <c r="K23" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="106">
+        <v>9</v>
+      </c>
+      <c r="R23" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="112" t="s">
-        <v>121</v>
-      </c>
-      <c r="P23" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="112">
-        <v>9</v>
-      </c>
-      <c r="R23" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="U23" s="114" t="s">
+      <c r="U23" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W23" s="128">
+      <c r="V23" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W23" s="122">
         <v>42436</v>
       </c>
-      <c r="X23" s="107"/>
+      <c r="X23" s="101"/>
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="132" t="s">
+      <c r="C24" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="104">
+        <v>22</v>
+      </c>
+      <c r="I24" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="106">
+        <v>9</v>
+      </c>
+      <c r="R24" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="110">
-        <v>22</v>
-      </c>
-      <c r="I24" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="112">
-        <v>9</v>
-      </c>
-      <c r="R24" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="U24" s="114" t="s">
+      <c r="U24" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W24" s="128">
+      <c r="V24" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W24" s="122">
         <v>42436</v>
       </c>
-      <c r="X24" s="107"/>
+      <c r="X24" s="101"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="71" t="s">
+      <c r="C25" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="70" t="s">
+      <c r="F25" s="85"/>
+      <c r="G25" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="68">
+        <v>23</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="71">
-        <v>23</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="73" t="s">
+      <c r="P25" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>6</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>6</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="U25" s="16" t="s">
+      <c r="U25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="46" t="s">
+      <c r="C26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="124" t="s">
+      <c r="H26" s="112">
+        <v>24</v>
+      </c>
+      <c r="I26" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="118">
-        <v>24</v>
-      </c>
-      <c r="I26" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="118" t="s">
+      <c r="K26" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="121">
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="115">
         <v>9</v>
       </c>
-      <c r="R26" s="121" t="s">
+      <c r="R26" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="121" t="s">
-        <v>133</v>
-      </c>
-      <c r="U26" s="125" t="s">
+      <c r="S26" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="U26" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W26" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="X26" s="107"/>
+      <c r="V26" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W26" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="109" t="s">
+      <c r="C27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="104">
+        <v>25</v>
+      </c>
+      <c r="I27" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="110">
-        <v>25</v>
-      </c>
-      <c r="I27" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="112" t="s">
+      <c r="K27" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="120">
+        <v>9</v>
+      </c>
+      <c r="R27" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="126">
-        <v>9</v>
-      </c>
-      <c r="R27" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="U27" s="127" t="s">
+      <c r="U27" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W27" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="X27" s="107"/>
+      <c r="V27" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W27" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="X27" s="101"/>
     </row>
     <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="47" t="s">
+      <c r="C28" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="109" t="s">
+      <c r="H28" s="104">
+        <v>26</v>
+      </c>
+      <c r="I28" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="110">
-        <v>26</v>
-      </c>
-      <c r="I28" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="112" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="111" t="s">
-        <v>139</v>
-      </c>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
+      <c r="K28" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
     </row>
     <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="52" t="s">
+      <c r="C29" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="44">
+        <v>27</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="47">
-        <v>27</v>
-      </c>
-      <c r="I29" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="54" t="s">
+      <c r="K29" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="K29" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="O29" s="54" t="s">
+      <c r="P29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>6</v>
+      </c>
+      <c r="R29" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="P29" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="49">
-        <v>6</v>
-      </c>
-      <c r="R29" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="S29" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="U29" s="51" t="s">
+      <c r="U29" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="55" t="s">
+      <c r="C30" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="53">
+        <v>28</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="56">
-        <v>28</v>
-      </c>
-      <c r="I30" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="58" t="s">
+      <c r="K30" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57" t="s">
+      <c r="O30" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="O30" s="58" t="s">
+      <c r="P30" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="57">
+        <v>6</v>
+      </c>
+      <c r="R30" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="P30" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="60">
-        <v>6</v>
-      </c>
-      <c r="R30" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="U30" s="61" t="s">
+      <c r="U30" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="105"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G32" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="V32" s="116">
+      <c r="G32" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="V32" s="110">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -18,7 +18,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="170">
   <si>
     <t>Asignatura</t>
   </si>
@@ -554,6 +553,9 @@
   </si>
   <si>
     <t>Cambios se deben pedir a Pedro, los solicito el 28/03/2016</t>
+  </si>
+  <si>
+    <t>Andrea Santos</t>
   </si>
 </sst>
 </file>
@@ -616,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,12 +717,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1038,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1446,40 +1442,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1493,6 +1471,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1565,33 +1570,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1892,7 +1870,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,103 +1897,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="174" t="s">
+      <c r="G1" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="172" t="s">
+      <c r="I1" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="164" t="s">
+      <c r="L1" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="186" t="s">
+      <c r="M1" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="186"/>
-      <c r="O1" s="187" t="s">
+      <c r="N1" s="156"/>
+      <c r="O1" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="189" t="s">
+      <c r="P1" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="184" t="s">
+      <c r="Q1" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="191" t="s">
+      <c r="R1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="184" t="s">
+      <c r="S1" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="180" t="s">
+      <c r="T1" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="182" t="s">
+      <c r="U1" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="160" t="s">
+      <c r="V1" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="162" t="s">
+      <c r="W1" s="165" t="s">
         <v>151</v>
       </c>
       <c r="X1" s="99"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="167"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="165"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="168"/>
       <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="163"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="166"/>
       <c r="X2" s="100" t="s">
         <v>152</v>
       </c>
@@ -2415,45 +2393,45 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="87"/>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="156">
+      <c r="H9" s="150">
         <v>7</v>
       </c>
-      <c r="I9" s="156" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="157" t="s">
+      <c r="I9" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="156" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="156" t="s">
+      <c r="K9" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="157" t="s">
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="157">
+      <c r="P9" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="151">
         <v>9</v>
       </c>
-      <c r="R9" s="157" t="s">
+      <c r="R9" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="157" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="157" t="s">
+      <c r="S9" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="159" t="s">
+      <c r="U9" s="153" t="s">
         <v>36</v>
       </c>
       <c r="V9" s="109" t="s">
@@ -2587,7 +2565,9 @@
       <c r="U11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="101"/>
+      <c r="V11" s="101" t="s">
+        <v>169</v>
+      </c>
       <c r="W11" s="101"/>
       <c r="X11" s="101"/>
     </row>
@@ -2606,45 +2586,45 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="89"/>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="144">
+      <c r="H12" s="104">
         <v>10</v>
       </c>
-      <c r="I12" s="145" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="146" t="s">
+      <c r="I12" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="145" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="145" t="s">
+      <c r="K12" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="146" t="s">
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="P12" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="146">
+      <c r="P12" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="106">
         <v>9</v>
       </c>
-      <c r="R12" s="146" t="s">
+      <c r="R12" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="146" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="146" t="s">
+      <c r="S12" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="148" t="s">
+      <c r="U12" s="108" t="s">
         <v>36</v>
       </c>
       <c r="V12" s="109" t="s">
@@ -2718,7 +2698,9 @@
       <c r="U13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="101"/>
+      <c r="V13" s="101" t="s">
+        <v>169</v>
+      </c>
       <c r="W13" s="101"/>
       <c r="X13" s="101"/>
     </row>
@@ -2844,7 +2826,9 @@
       <c r="U15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="101"/>
+      <c r="V15" s="101" t="s">
+        <v>169</v>
+      </c>
       <c r="W15" s="101"/>
       <c r="X15" s="101"/>
     </row>
@@ -2863,49 +2847,49 @@
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="81"/>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="150">
+      <c r="H16" s="144">
         <v>14</v>
       </c>
-      <c r="I16" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="151" t="s">
+      <c r="I16" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="150" t="s">
+      <c r="K16" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="151">
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="145">
         <v>9</v>
       </c>
-      <c r="R16" s="151" t="s">
+      <c r="R16" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="151" t="s">
+      <c r="S16" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="153" t="s">
+      <c r="U16" s="147" t="s">
         <v>36</v>
       </c>
       <c r="V16" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="W16" s="154">
+      <c r="W16" s="148">
         <v>42456</v>
       </c>
       <c r="X16" s="101"/>
@@ -3099,7 +3083,7 @@
       <c r="V19" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="W19" s="142">
+      <c r="W19" s="122">
         <v>42455</v>
       </c>
       <c r="X19" s="101" t="s">
@@ -3808,12 +3792,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3830,6 +3808,12 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="172">
   <si>
     <t>Asignatura</t>
   </si>
@@ -327,9 +327,6 @@
     <t>La moda</t>
   </si>
   <si>
-    <t>Calcula moda, mediana y moda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad para determinar la moda, media y mediana de un conjunto de datos </t>
   </si>
   <si>
@@ -556,6 +553,15 @@
   </si>
   <si>
     <t>Andrea Santos</t>
+  </si>
+  <si>
+    <t>Tamaño de imágenes no permite solucionar el recurso</t>
+  </si>
+  <si>
+    <t>Johanna Vera</t>
+  </si>
+  <si>
+    <t>Calcula moda, mediana y media</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +727,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1034,110 +1052,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1159,9 +1099,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,44 +1150,11 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1458,21 +1362,46 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1571,6 +1500,75 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1869,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,1897 +1895,1961 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="177" t="s">
+      <c r="G1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="175" t="s">
+      <c r="I1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="179" t="s">
+      <c r="J1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="181" t="s">
+      <c r="K1" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="167" t="s">
+      <c r="L1" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="156" t="s">
+      <c r="M1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="156"/>
-      <c r="O1" s="157" t="s">
+      <c r="N1" s="127"/>
+      <c r="O1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="159" t="s">
+      <c r="P1" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="154" t="s">
+      <c r="Q1" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="161" t="s">
+      <c r="R1" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="154" t="s">
+      <c r="S1" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="183" t="s">
+      <c r="T1" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="185" t="s">
+      <c r="U1" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="163" t="s">
+      <c r="V1" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="165" t="s">
-        <v>151</v>
-      </c>
-      <c r="X1" s="99"/>
+      <c r="X1" s="167"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="7" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="100" t="s">
-        <v>152</v>
+      <c r="O2" s="129"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="168" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="111" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="112">
+      <c r="H3" s="74">
         <v>1</v>
       </c>
-      <c r="I3" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="113" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="112" t="s">
+      <c r="I3" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="114" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="114">
+      <c r="P3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="76">
         <v>9</v>
       </c>
-      <c r="R3" s="114" t="s">
+      <c r="R3" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="114" t="s">
+      <c r="S3" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="116" t="s">
+      <c r="U3" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="W3" s="117">
+      <c r="V3" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="W3" s="79">
         <v>42432</v>
       </c>
-      <c r="X3" s="99" t="s">
-        <v>157</v>
+      <c r="X3" s="61" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="123" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="66">
         <v>2</v>
       </c>
-      <c r="I4" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="124" t="s">
+      <c r="I4" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="68">
+        <v>9</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W4" s="84">
+        <v>42435</v>
+      </c>
+      <c r="X4" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="K4" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="106">
-        <v>9</v>
-      </c>
-      <c r="R4" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W4" s="122">
-        <v>42435</v>
-      </c>
-      <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="31" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="99">
         <v>3</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="30" t="s">
+      <c r="I5" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="100"/>
+      <c r="N5" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="32">
+      <c r="P5" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="172">
         <v>6</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X5" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="31" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="99">
         <v>4</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
+      <c r="M6" s="100"/>
+      <c r="N6" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="32">
+      <c r="P6" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="172">
         <v>6</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X6" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="31" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="159">
         <v>5</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="I7" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="160"/>
+      <c r="N7" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="32">
+      <c r="P7" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="163">
         <v>6</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="T7" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X7" s="166">
+        <v>42457</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="35" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="37" t="s">
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="K8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="39">
+      <c r="P8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="13">
         <v>6</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="40" t="s">
+      <c r="T8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="41" t="s">
+      <c r="U8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="149" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="112">
         <v>7</v>
       </c>
-      <c r="I9" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="151" t="s">
+      <c r="I9" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="150" t="s">
+      <c r="K9" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="151" t="s">
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="113">
+        <v>9</v>
+      </c>
+      <c r="R9" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W9" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X9" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y9" t="s">
         <v>167</v>
-      </c>
-      <c r="P9" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="151">
-        <v>9</v>
-      </c>
-      <c r="R9" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="U9" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="128" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="129">
+      <c r="H10" s="91">
         <v>8</v>
       </c>
-      <c r="I10" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="131" t="s">
+      <c r="I10" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="130" t="s">
+      <c r="K10" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="130" t="s">
+      <c r="M10" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="131" t="s">
+      <c r="N10" s="92"/>
+      <c r="O10" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="133">
+      <c r="P10" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="95">
         <v>6</v>
       </c>
-      <c r="R10" s="133" t="s">
+      <c r="R10" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="133" t="s">
+      <c r="S10" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="134" t="s">
+      <c r="T10" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="135" t="s">
+      <c r="U10" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="127"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="117">
         <v>9</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="118"/>
+      <c r="N11" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="18">
+      <c r="P11" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="121">
         <v>6</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="T11" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="101" t="s">
+      <c r="V11" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
+      <c r="X11" s="63"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="103" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="104">
+      <c r="H12" s="66">
         <v>10</v>
       </c>
-      <c r="I12" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="106" t="s">
+      <c r="I12" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="105" t="s">
+      <c r="K12" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="106">
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="P12" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="68">
         <v>9</v>
       </c>
-      <c r="R12" s="106" t="s">
+      <c r="R12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="106" t="s">
+      <c r="S12" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="108" t="s">
+      <c r="U12" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W12" s="101" t="s">
+      <c r="V12" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W12" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="X12" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y12" t="s">
         <v>164</v>
-      </c>
-      <c r="X12" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="159">
         <v>11</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="160"/>
+      <c r="N13" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="18">
+      <c r="P13" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="163">
         <v>6</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="19" t="s">
+      <c r="T13" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
+      <c r="V13" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X13" s="166">
+        <v>42457</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="136" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="137">
+      <c r="H14" s="66">
         <v>12</v>
       </c>
-      <c r="I14" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="139" t="s">
+      <c r="I14" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="138" t="s">
+      <c r="K14" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="139">
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="68">
         <v>9</v>
       </c>
-      <c r="R14" s="139" t="s">
+      <c r="R14" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="139" t="s">
+      <c r="S14" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="U14" s="141" t="s">
+      <c r="U14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W14" s="142">
+      <c r="V14" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W14" s="84">
         <v>42455</v>
       </c>
-      <c r="X14" s="101"/>
+      <c r="X14" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="176">
         <v>13</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="24" t="s">
+      <c r="I15" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="23" t="s">
+      <c r="K15" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23" t="s">
+      <c r="M15" s="177"/>
+      <c r="N15" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="26">
+      <c r="P15" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="180">
         <v>6</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="S15" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="27" t="s">
+      <c r="T15" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="28" t="s">
+      <c r="U15" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
+      <c r="V15" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="W15" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X15" s="166">
+        <v>42457</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="143" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="144">
+      <c r="H16" s="106">
         <v>14</v>
       </c>
-      <c r="I16" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="145" t="s">
+      <c r="I16" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="144" t="s">
+      <c r="K16" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="145">
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="107">
         <v>9</v>
       </c>
-      <c r="R16" s="145" t="s">
+      <c r="R16" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="145" t="s">
+      <c r="S16" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="147" t="s">
+      <c r="U16" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W16" s="148">
+      <c r="V16" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W16" s="110">
         <v>42456</v>
       </c>
-      <c r="X16" s="101"/>
+      <c r="X16" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="61" t="s">
+      <c r="C17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="92" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="169" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="99">
+        <v>15</v>
+      </c>
+      <c r="I17" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="61">
-        <v>15</v>
-      </c>
-      <c r="I17" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="63" t="s">
+      <c r="K17" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="170" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62" t="s">
+      <c r="O17" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="P17" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="172">
+        <v>6</v>
+      </c>
+      <c r="R17" s="172" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="172" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>6</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="10" t="s">
+      <c r="U17" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
+      <c r="V17" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="W17" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X17" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="83" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="H18" s="99">
+        <v>16</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="61">
-        <v>16</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66" t="s">
+      <c r="O18" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>6</v>
+      </c>
+      <c r="R18" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>6</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
+      <c r="V18" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="W18" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X18" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="61" t="s">
+      <c r="C19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="83" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="136" t="s">
+      <c r="H19" s="99">
+        <v>17</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="137">
-        <v>17</v>
-      </c>
-      <c r="I19" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="139" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="138" t="s">
+      <c r="K19" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="139" t="s">
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="P19" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>9</v>
+      </c>
+      <c r="R19" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W19" s="84">
+        <v>42455</v>
+      </c>
+      <c r="X19" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y19" t="s">
         <v>162</v>
-      </c>
-      <c r="P19" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="139">
-        <v>9</v>
-      </c>
-      <c r="R19" s="139" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="139" t="s">
-        <v>107</v>
-      </c>
-      <c r="U19" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W19" s="122">
-        <v>42455</v>
-      </c>
-      <c r="X19" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="83" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="H20" s="159">
+        <v>18</v>
+      </c>
+      <c r="I20" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="61">
-        <v>18</v>
-      </c>
-      <c r="I20" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="160" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="163">
+        <v>6</v>
+      </c>
+      <c r="R20" s="163" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="163" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>6</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
+      <c r="V20" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="W20" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X20" s="166">
+        <v>42457</v>
+      </c>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="61" t="s">
+      <c r="C21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="103" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="66">
+        <v>19</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="104">
-        <v>19</v>
-      </c>
-      <c r="I21" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="105" t="s">
+      <c r="K21" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="106">
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="68">
         <v>9</v>
       </c>
-      <c r="R21" s="106" t="s">
+      <c r="R21" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="U21" s="108" t="s">
+      <c r="S21" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="U21" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W21" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="X21" s="101"/>
+      <c r="V21" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W21" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="X21" s="63"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="61" t="s">
+      <c r="C22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="83" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="126" t="s">
+      <c r="H22" s="66">
+        <v>20</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="104">
-        <v>20</v>
-      </c>
-      <c r="I22" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="106" t="s">
+      <c r="K22" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="106" t="s">
+      <c r="P22" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="68">
+        <v>9</v>
+      </c>
+      <c r="R22" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="106">
-        <v>9</v>
-      </c>
-      <c r="R22" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="U22" s="108" t="s">
+      <c r="U22" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W22" s="122">
+      <c r="V22" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W22" s="84">
         <v>42436</v>
       </c>
-      <c r="X22" s="101"/>
+      <c r="X22" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="61" t="s">
+      <c r="C23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="83" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="126" t="s">
+      <c r="H23" s="66">
+        <v>21</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="104">
-        <v>21</v>
-      </c>
-      <c r="I23" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="K23" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="68">
+        <v>9</v>
+      </c>
+      <c r="R23" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="P23" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="106">
-        <v>9</v>
-      </c>
-      <c r="R23" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="106" t="s">
-        <v>125</v>
-      </c>
-      <c r="U23" s="108" t="s">
+      <c r="U23" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W23" s="122">
+      <c r="V23" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W23" s="84">
         <v>42436</v>
       </c>
-      <c r="X23" s="101"/>
+      <c r="X23" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="61" t="s">
+      <c r="C24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="126" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="66">
+        <v>22</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>9</v>
+      </c>
+      <c r="R24" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="104">
-        <v>22</v>
-      </c>
-      <c r="I24" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="106">
-        <v>9</v>
-      </c>
-      <c r="R24" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="U24" s="108" t="s">
+      <c r="U24" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W24" s="122">
+      <c r="V24" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W24" s="84">
         <v>42436</v>
       </c>
-      <c r="X24" s="101"/>
+      <c r="X24" s="63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="68" t="s">
+      <c r="C25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="67" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="176">
+        <v>23</v>
+      </c>
+      <c r="I25" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="178" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="177" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="68">
-        <v>23</v>
-      </c>
-      <c r="I25" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="70" t="s">
+      <c r="P25" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="180">
+        <v>6</v>
+      </c>
+      <c r="R25" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="180" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="P25" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>6</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="U25" s="13" t="s">
+      <c r="U25" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
+      <c r="V25" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="W25" s="104">
+        <v>42457</v>
+      </c>
+      <c r="X25" s="166">
+        <v>42457</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="118" t="s">
+      <c r="H26" s="74">
+        <v>24</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="112">
-        <v>24</v>
-      </c>
-      <c r="I26" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="114" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="112" t="s">
+      <c r="K26" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="115">
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="77">
         <v>9</v>
       </c>
-      <c r="R26" s="115" t="s">
+      <c r="R26" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="115" t="s">
-        <v>132</v>
-      </c>
-      <c r="U26" s="119" t="s">
+      <c r="S26" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="U26" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W26" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="X26" s="101"/>
+      <c r="V26" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W26" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="X26" s="63"/>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="103" t="s">
+      <c r="C27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="66">
+        <v>25</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="H27" s="104">
-        <v>25</v>
-      </c>
-      <c r="I27" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="106" t="s">
+      <c r="K27" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="82">
+        <v>9</v>
+      </c>
+      <c r="R27" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="120">
-        <v>9</v>
-      </c>
-      <c r="R27" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="U27" s="121" t="s">
+      <c r="U27" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W27" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="X27" s="101"/>
+      <c r="V27" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W27" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="X27" s="63"/>
     </row>
     <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="44" t="s">
+      <c r="C28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="103" t="s">
+      <c r="H28" s="66">
+        <v>26</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="104">
-        <v>26</v>
-      </c>
-      <c r="I28" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
+      <c r="K28" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
     </row>
     <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="49" t="s">
+      <c r="C29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="17">
+        <v>27</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="44">
-        <v>27</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="51" t="s">
+      <c r="K29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="O29" s="51" t="s">
+      <c r="P29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>6</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="P29" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="46">
-        <v>6</v>
-      </c>
-      <c r="R29" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="S29" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="U29" s="48" t="s">
+      <c r="U29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
+      <c r="V29" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="52" t="s">
+      <c r="C30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="26">
+        <v>28</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="53">
-        <v>28</v>
-      </c>
-      <c r="I30" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="55" t="s">
+      <c r="K30" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K30" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54" t="s">
+      <c r="O30" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="O30" s="55" t="s">
+      <c r="P30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="30">
+        <v>6</v>
+      </c>
+      <c r="R30" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="P30" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="57">
-        <v>6</v>
-      </c>
-      <c r="R30" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="U30" s="58" t="s">
+      <c r="U30" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
+      <c r="V30" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G32" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="V32" s="110">
+      <c r="G32" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="V32" s="72">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="172">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1052,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1066,9 +1066,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,164 +1075,106 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,105 +1341,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1568,6 +1408,131 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1868,7 +1833,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,109 +1860,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="H1" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="146" t="s">
+      <c r="I1" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="138" t="s">
+      <c r="L1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="127"/>
-      <c r="O1" s="128" t="s">
+      <c r="N1" s="155"/>
+      <c r="O1" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="130" t="s">
+      <c r="P1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="125" t="s">
+      <c r="Q1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="132" t="s">
+      <c r="R1" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="125" t="s">
+      <c r="S1" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="154" t="s">
+      <c r="T1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="156" t="s">
+      <c r="U1" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="134" t="s">
+      <c r="V1" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="136" t="s">
+      <c r="W1" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="167"/>
+      <c r="X1" s="113"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="139"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="134"/>
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="168" t="s">
+      <c r="O2" s="157"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="114" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2010,60 +1975,60 @@
         <v>25</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="73" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="53">
         <v>1</v>
       </c>
-      <c r="I3" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="75" t="s">
+      <c r="I3" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="74" t="s">
+      <c r="K3" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="76" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="76">
+      <c r="P3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="55">
         <v>9</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="U3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="V3" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="W3" s="79">
+      <c r="W3" s="58">
         <v>42432</v>
       </c>
-      <c r="X3" s="61" t="s">
+      <c r="X3" s="41" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2076,60 +2041,60 @@
         <v>25</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="85" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="45">
         <v>2</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="66" t="s">
+      <c r="K4" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="87" t="s">
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="68">
+      <c r="P4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="47">
         <v>9</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="68" t="s">
+      <c r="S4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W4" s="84">
+      <c r="W4" s="63">
         <v>42435</v>
       </c>
-      <c r="X4" s="63" t="s">
+      <c r="X4" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2142,60 +2107,60 @@
         <v>25</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="98" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="78">
         <v>3</v>
       </c>
-      <c r="I5" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="101" t="s">
+      <c r="I5" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="100" t="s">
+      <c r="K5" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100" t="s">
+      <c r="M5" s="79"/>
+      <c r="N5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="101" t="s">
+      <c r="O5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="172">
+      <c r="P5" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="118">
         <v>6</v>
       </c>
-      <c r="R5" s="172" t="s">
+      <c r="R5" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="172" t="s">
+      <c r="S5" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="173" t="s">
+      <c r="T5" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="174" t="s">
+      <c r="U5" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="104">
+      <c r="V5" s="50"/>
+      <c r="W5" s="83">
         <v>42457</v>
       </c>
-      <c r="X5" s="63" t="s">
+      <c r="X5" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2208,60 +2173,60 @@
         <v>25</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="98" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="99">
+      <c r="H6" s="78">
         <v>4</v>
       </c>
-      <c r="I6" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="101" t="s">
+      <c r="I6" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="100" t="s">
+      <c r="K6" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100" t="s">
+      <c r="M6" s="79"/>
+      <c r="N6" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="101" t="s">
+      <c r="O6" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="172">
+      <c r="P6" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="118">
         <v>6</v>
       </c>
-      <c r="R6" s="172" t="s">
+      <c r="R6" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="172" t="s">
+      <c r="S6" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="173" t="s">
+      <c r="T6" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="174" t="s">
+      <c r="U6" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="104">
+      <c r="V6" s="50"/>
+      <c r="W6" s="83">
         <v>42457</v>
       </c>
-      <c r="X6" s="63" t="s">
+      <c r="X6" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2274,185 +2239,189 @@
         <v>25</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="158" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="159">
+      <c r="H7" s="105">
         <v>5</v>
       </c>
-      <c r="I7" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="161" t="s">
+      <c r="I7" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="160" t="s">
+      <c r="K7" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160" t="s">
+      <c r="M7" s="106"/>
+      <c r="N7" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="161" t="s">
+      <c r="O7" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="163">
+      <c r="P7" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="109">
         <v>6</v>
       </c>
-      <c r="R7" s="163" t="s">
+      <c r="R7" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="163" t="s">
+      <c r="S7" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="164" t="s">
+      <c r="T7" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="165" t="s">
+      <c r="U7" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="71"/>
-      <c r="W7" s="104">
+      <c r="V7" s="50"/>
+      <c r="W7" s="83">
         <v>42457</v>
       </c>
-      <c r="X7" s="166">
+      <c r="X7" s="112">
         <v>42457</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="165">
         <v>6</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="166"/>
+      <c r="N8" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="13">
+      <c r="P8" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="169">
         <v>6</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="83">
+        <v>42458</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="111" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="91">
         <v>7</v>
       </c>
-      <c r="I9" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="113" t="s">
+      <c r="I9" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="112" t="s">
+      <c r="K9" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="113" t="s">
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="113">
+      <c r="P9" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="92">
         <v>9</v>
       </c>
-      <c r="R9" s="113" t="s">
+      <c r="R9" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="113" t="s">
+      <c r="S9" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="115" t="s">
+      <c r="U9" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="71" t="s">
+      <c r="V9" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W9" s="104">
+      <c r="W9" s="83">
         <v>42457</v>
       </c>
-      <c r="X9" s="63" t="s">
+      <c r="X9" s="42" t="s">
         <v>163</v>
       </c>
       <c r="Y9" t="s">
@@ -2460,7 +2429,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2473,56 +2442,56 @@
         <v>61</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="90" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="70">
         <v>8</v>
       </c>
-      <c r="I10" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="93" t="s">
+      <c r="I10" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="92" t="s">
+      <c r="K10" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="92" t="s">
+      <c r="M10" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="93" t="s">
+      <c r="N10" s="71"/>
+      <c r="O10" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="95">
+      <c r="P10" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="74">
         <v>6</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="96" t="s">
+      <c r="T10" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="97" t="s">
+      <c r="U10" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="89"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2535,60 +2504,60 @@
         <v>61</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="116" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="96">
         <v>9</v>
       </c>
-      <c r="I11" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="119" t="s">
+      <c r="I11" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="118" t="s">
+      <c r="K11" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118" t="s">
+      <c r="M11" s="97"/>
+      <c r="N11" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="119" t="s">
+      <c r="O11" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="121">
+      <c r="P11" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="100">
         <v>6</v>
       </c>
-      <c r="R11" s="121" t="s">
+      <c r="R11" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="121" t="s">
+      <c r="S11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="122" t="s">
+      <c r="T11" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="U11" s="123" t="s">
+      <c r="U11" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="124" t="s">
+      <c r="V11" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="W11" s="63" t="s">
+      <c r="W11" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="X11" s="63"/>
+      <c r="X11" s="42"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2601,55 +2570,55 @@
         <v>61</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="65" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="45">
         <v>10</v>
       </c>
-      <c r="I12" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="68" t="s">
+      <c r="I12" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="67" t="s">
+      <c r="K12" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68" t="s">
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="P12" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="68">
+      <c r="P12" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="47">
         <v>9</v>
       </c>
-      <c r="R12" s="68" t="s">
+      <c r="R12" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="68" t="s">
+      <c r="S12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W12" s="63" t="s">
+      <c r="W12" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="X12" s="63" t="s">
+      <c r="X12" s="42" t="s">
         <v>156</v>
       </c>
       <c r="Y12" t="s">
@@ -2657,7 +2626,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2670,62 +2639,62 @@
         <v>61</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="158" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="159">
+      <c r="H13" s="105">
         <v>11</v>
       </c>
-      <c r="I13" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="161" t="s">
+      <c r="I13" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="160" t="s">
+      <c r="K13" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160" t="s">
+      <c r="M13" s="106"/>
+      <c r="N13" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="161" t="s">
+      <c r="O13" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="163">
+      <c r="P13" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="109">
         <v>6</v>
       </c>
-      <c r="R13" s="163" t="s">
+      <c r="R13" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="163" t="s">
+      <c r="S13" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="164" t="s">
+      <c r="T13" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="165" t="s">
+      <c r="U13" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="71" t="s">
+      <c r="V13" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W13" s="104">
+      <c r="W13" s="83">
         <v>42457</v>
       </c>
-      <c r="X13" s="166">
+      <c r="X13" s="112">
         <v>42457</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2738,395 +2707,395 @@
         <v>61</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="65" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="45">
         <v>12</v>
       </c>
-      <c r="I14" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="68" t="s">
+      <c r="I14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="67" t="s">
+      <c r="K14" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="68">
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="47">
         <v>9</v>
       </c>
-      <c r="R14" s="68" t="s">
+      <c r="R14" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="68" t="s">
+      <c r="S14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="U14" s="70" t="s">
+      <c r="U14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="71" t="s">
+      <c r="V14" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W14" s="84">
+      <c r="W14" s="63">
         <v>42455</v>
       </c>
-      <c r="X14" s="63" t="s">
+      <c r="X14" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="175" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="176">
+      <c r="H15" s="122">
         <v>13</v>
       </c>
-      <c r="I15" s="177" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="178" t="s">
+      <c r="I15" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="177" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="177" t="s">
+      <c r="K15" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177" t="s">
+      <c r="M15" s="123"/>
+      <c r="N15" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="178" t="s">
+      <c r="O15" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="179" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="180">
+      <c r="P15" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="126">
         <v>6</v>
       </c>
-      <c r="R15" s="180" t="s">
+      <c r="R15" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="180" t="s">
+      <c r="S15" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="181" t="s">
+      <c r="T15" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="182" t="s">
+      <c r="U15" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="71" t="s">
+      <c r="V15" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W15" s="104">
+      <c r="W15" s="83">
         <v>42457</v>
       </c>
-      <c r="X15" s="166">
+      <c r="X15" s="112">
         <v>42457</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="105" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="106">
+      <c r="H16" s="85">
         <v>14</v>
       </c>
-      <c r="I16" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="107" t="s">
+      <c r="I16" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="106" t="s">
+      <c r="K16" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="107">
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="86">
         <v>9</v>
       </c>
-      <c r="R16" s="107" t="s">
+      <c r="R16" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="107" t="s">
+      <c r="S16" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="109" t="s">
+      <c r="U16" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="71" t="s">
+      <c r="V16" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W16" s="110">
+      <c r="W16" s="89">
         <v>42456</v>
       </c>
-      <c r="X16" s="63" t="s">
+      <c r="X16" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="54" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="169" t="s">
+      <c r="G17" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="99">
+      <c r="H17" s="78">
         <v>15</v>
       </c>
-      <c r="I17" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="171" t="s">
+      <c r="I17" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="170" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="170" t="s">
+      <c r="K17" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170" t="s">
+      <c r="M17" s="116"/>
+      <c r="N17" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="171" t="s">
+      <c r="O17" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="172">
+      <c r="P17" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="118">
         <v>6</v>
       </c>
-      <c r="R17" s="172" t="s">
+      <c r="R17" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="172" t="s">
+      <c r="S17" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="173" t="s">
+      <c r="T17" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="174" t="s">
+      <c r="U17" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="71" t="s">
+      <c r="V17" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="W17" s="104">
+      <c r="W17" s="83">
         <v>42457</v>
       </c>
-      <c r="X17" s="63" t="s">
+      <c r="X17" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="45" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="99">
+      <c r="H18" s="78">
         <v>16</v>
       </c>
-      <c r="I18" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="101" t="s">
+      <c r="I18" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="100" t="s">
+      <c r="K18" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100" t="s">
+      <c r="M18" s="79"/>
+      <c r="N18" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="O18" s="101" t="s">
+      <c r="O18" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="101">
+      <c r="P18" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="80">
         <v>6</v>
       </c>
-      <c r="R18" s="101" t="s">
+      <c r="R18" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="101" t="s">
+      <c r="S18" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="101" t="s">
+      <c r="T18" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="U18" s="103" t="s">
+      <c r="U18" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="V18" s="71" t="s">
+      <c r="V18" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="W18" s="104">
+      <c r="W18" s="83">
         <v>42457</v>
       </c>
-      <c r="X18" s="63" t="s">
+      <c r="X18" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="45" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="99">
+      <c r="H19" s="78">
         <v>17</v>
       </c>
-      <c r="I19" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="101" t="s">
+      <c r="I19" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="100" t="s">
+      <c r="K19" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="101" t="s">
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="P19" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="101">
+      <c r="P19" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="80">
         <v>9</v>
       </c>
-      <c r="R19" s="101" t="s">
+      <c r="R19" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="101" t="s">
+      <c r="S19" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="U19" s="103" t="s">
+      <c r="U19" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="71" t="s">
+      <c r="V19" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="84">
+      <c r="W19" s="63">
         <v>42455</v>
       </c>
-      <c r="X19" s="63" t="s">
+      <c r="X19" s="42" t="s">
         <v>156</v>
       </c>
       <c r="Y19" t="s">
@@ -3134,716 +3103,728 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="33" t="s">
+      <c r="C20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="45" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="158" t="s">
+      <c r="G20" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="159">
+      <c r="H20" s="105">
         <v>18</v>
       </c>
-      <c r="I20" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="161" t="s">
+      <c r="I20" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="160" t="s">
+      <c r="K20" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160" t="s">
+      <c r="M20" s="106"/>
+      <c r="N20" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="161" t="s">
+      <c r="O20" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="163">
+      <c r="P20" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="109">
         <v>6</v>
       </c>
-      <c r="R20" s="163" t="s">
+      <c r="R20" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="163" t="s">
+      <c r="S20" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="164" t="s">
+      <c r="T20" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="165" t="s">
+      <c r="U20" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="71" t="s">
+      <c r="V20" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="W20" s="104">
+      <c r="W20" s="83">
         <v>42457</v>
       </c>
-      <c r="X20" s="166">
+      <c r="X20" s="112">
         <v>42457</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="65" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="45">
         <v>19</v>
       </c>
-      <c r="I21" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="68" t="s">
+      <c r="I21" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="67" t="s">
+      <c r="K21" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68" t="s">
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="68">
+      <c r="P21" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="47">
         <v>9</v>
       </c>
-      <c r="R21" s="68" t="s">
+      <c r="R21" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="68" t="s">
+      <c r="S21" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="U21" s="70" t="s">
+      <c r="U21" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="71" t="s">
+      <c r="V21" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W21" s="63" t="s">
+      <c r="W21" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="X21" s="63"/>
+      <c r="X21" s="42"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="45" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="45">
         <v>20</v>
       </c>
-      <c r="I22" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="68" t="s">
+      <c r="I22" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="67" t="s">
+      <c r="K22" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="68" t="s">
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="68">
+      <c r="P22" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="47">
         <v>9</v>
       </c>
-      <c r="R22" s="68" t="s">
+      <c r="R22" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="68" t="s">
+      <c r="S22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="U22" s="70" t="s">
+      <c r="U22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="71" t="s">
+      <c r="V22" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W22" s="84">
+      <c r="W22" s="63">
         <v>42436</v>
       </c>
-      <c r="X22" s="63" t="s">
+      <c r="X22" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="45" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="88" t="s">
+      <c r="G23" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="45">
         <v>21</v>
       </c>
-      <c r="I23" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="68" t="s">
+      <c r="I23" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="67" t="s">
+      <c r="K23" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68" t="s">
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="68">
+      <c r="P23" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="47">
         <v>9</v>
       </c>
-      <c r="R23" s="68" t="s">
+      <c r="R23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="68" t="s">
+      <c r="S23" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="U23" s="70" t="s">
+      <c r="U23" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="71" t="s">
+      <c r="V23" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W23" s="84">
+      <c r="W23" s="63">
         <v>42436</v>
       </c>
-      <c r="X23" s="63" t="s">
+      <c r="X23" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="88" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="45">
         <v>22</v>
       </c>
-      <c r="I24" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="68" t="s">
+      <c r="I24" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="67" t="s">
+      <c r="K24" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="68">
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="47">
         <v>9</v>
       </c>
-      <c r="R24" s="68" t="s">
+      <c r="R24" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S24" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" s="68" t="s">
+      <c r="S24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="U24" s="70" t="s">
+      <c r="U24" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="71" t="s">
+      <c r="V24" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W24" s="84">
+      <c r="W24" s="63">
         <v>42436</v>
       </c>
-      <c r="X24" s="63" t="s">
+      <c r="X24" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="175" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="176">
+      <c r="H25" s="122">
         <v>23</v>
       </c>
-      <c r="I25" s="177" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="178" t="s">
+      <c r="I25" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="177" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="177" t="s">
+      <c r="K25" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="177"/>
-      <c r="N25" s="177" t="s">
+      <c r="M25" s="123"/>
+      <c r="N25" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="178" t="s">
+      <c r="O25" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="179" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="180">
+      <c r="P25" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="126">
         <v>6</v>
       </c>
-      <c r="R25" s="180" t="s">
+      <c r="R25" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="180" t="s">
+      <c r="S25" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="181" t="s">
+      <c r="T25" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="182" t="s">
+      <c r="U25" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="71" t="s">
+      <c r="V25" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="W25" s="104">
+      <c r="W25" s="83">
         <v>42457</v>
       </c>
-      <c r="X25" s="166">
+      <c r="X25" s="112">
         <v>42457</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="80" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="74">
-        <v>24</v>
-      </c>
-      <c r="I26" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="76" t="s">
+      <c r="H26" s="53">
+        <v>24</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="74" t="s">
+      <c r="K26" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="77">
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="56">
         <v>9</v>
       </c>
-      <c r="R26" s="77" t="s">
+      <c r="R26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="77" t="s">
+      <c r="S26" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="U26" s="81" t="s">
+      <c r="U26" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="71" t="s">
+      <c r="V26" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W26" s="63" t="s">
+      <c r="W26" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="X26" s="63"/>
+      <c r="X26" s="42"/>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="65" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="45">
         <v>25</v>
       </c>
-      <c r="I27" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="68" t="s">
+      <c r="I27" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="K27" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="67" t="s">
+      <c r="K27" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="82">
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="61">
         <v>9</v>
       </c>
-      <c r="R27" s="82" t="s">
+      <c r="R27" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="S27" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="82" t="s">
+      <c r="S27" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="U27" s="83" t="s">
+      <c r="U27" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="71" t="s">
+      <c r="V27" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W27" s="63" t="s">
+      <c r="W27" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="X27" s="63"/>
+      <c r="X27" s="42"/>
     </row>
     <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="65" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="45">
         <v>26</v>
       </c>
-      <c r="I28" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="68" t="s">
+      <c r="I28" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="67" t="s">
+      <c r="K28" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="71" t="s">
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
+      <c r="W28" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="X28" s="42" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="22" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="17">
-        <v>27</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="24" t="s">
+      <c r="H29" s="105">
+        <v>27</v>
+      </c>
+      <c r="I29" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="K29" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="23" t="s">
+      <c r="K29" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23" t="s">
+      <c r="M29" s="106"/>
+      <c r="N29" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="19">
+      <c r="P29" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="109">
         <v>6</v>
       </c>
-      <c r="R29" s="19" t="s">
+      <c r="R29" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="S29" s="19" t="s">
+      <c r="S29" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="U29" s="21" t="s">
+      <c r="U29" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="63" t="s">
+      <c r="V29" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
+      <c r="W29" s="83">
+        <v>42458</v>
+      </c>
+      <c r="X29" s="112">
+        <v>42458</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="25" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="122">
         <v>28</v>
       </c>
-      <c r="I30" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="28" t="s">
+      <c r="I30" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="27" t="s">
+      <c r="K30" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27" t="s">
+      <c r="M30" s="123"/>
+      <c r="N30" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="O30" s="28" t="s">
+      <c r="O30" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="P30" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="30">
+      <c r="P30" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="126">
         <v>6</v>
       </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="30" t="s">
+      <c r="S30" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="30" t="s">
+      <c r="T30" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="U30" s="31" t="s">
+      <c r="U30" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="62" t="s">
+      <c r="V30" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
+      <c r="W30" s="163">
+        <v>42458</v>
+      </c>
+      <c r="X30" s="162">
+        <v>42458</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="V32" s="72">
+      <c r="V32" s="51">
         <v>13</v>
       </c>
     </row>
@@ -3854,6 +3835,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3870,12 +3857,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="171">
   <si>
     <t>Asignatura</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>Andrea Santos</t>
-  </si>
-  <si>
-    <t>Tamaño de imágenes no permite solucionar el recurso</t>
   </si>
   <si>
     <t>Johanna Vera</t>
@@ -624,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,12 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1052,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1340,34 +1331,9 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1386,29 +1352,82 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1481,59 +1500,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="19" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1832,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,104 +1826,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="145" t="s">
+      <c r="J1" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="133" t="s">
+      <c r="L1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="155" t="s">
+      <c r="M1" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="155"/>
-      <c r="O1" s="156" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="158" t="s">
+      <c r="P1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="153" t="s">
+      <c r="Q1" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="160" t="s">
+      <c r="R1" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="153" t="s">
+      <c r="S1" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="149" t="s">
+      <c r="T1" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="151" t="s">
+      <c r="U1" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="129" t="s">
+      <c r="V1" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="131" t="s">
+      <c r="W1" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="113"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="136"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="134"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="144"/>
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="157"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="114" t="s">
+      <c r="O2" s="134"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="105" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2136,19 +2102,19 @@
       <c r="P5" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="118">
+      <c r="Q5" s="109">
         <v>6</v>
       </c>
-      <c r="R5" s="118" t="s">
+      <c r="R5" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="118" t="s">
+      <c r="S5" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="119" t="s">
+      <c r="T5" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="120" t="s">
+      <c r="U5" s="111" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="50"/>
@@ -2202,19 +2168,19 @@
       <c r="P6" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="118">
+      <c r="Q6" s="109">
         <v>6</v>
       </c>
-      <c r="R6" s="118" t="s">
+      <c r="R6" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="118" t="s">
+      <c r="S6" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="119" t="s">
+      <c r="T6" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="120" t="s">
+      <c r="U6" s="111" t="s">
         <v>45</v>
       </c>
       <c r="V6" s="50"/>
@@ -2240,54 +2206,54 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="105">
+      <c r="H7" s="96">
         <v>5</v>
       </c>
-      <c r="I7" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="107" t="s">
+      <c r="I7" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="106" t="s">
+      <c r="K7" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106" t="s">
+      <c r="M7" s="97"/>
+      <c r="N7" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="107" t="s">
+      <c r="O7" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="109">
+      <c r="P7" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="100">
         <v>6</v>
       </c>
-      <c r="R7" s="109" t="s">
+      <c r="R7" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="109" t="s">
+      <c r="S7" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="110" t="s">
+      <c r="T7" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="111" t="s">
+      <c r="U7" s="102" t="s">
         <v>45</v>
       </c>
       <c r="V7" s="50"/>
       <c r="W7" s="83">
         <v>42457</v>
       </c>
-      <c r="X7" s="112">
+      <c r="X7" s="103">
         <v>42457</v>
       </c>
     </row>
@@ -2308,47 +2274,47 @@
         <v>55</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="165">
+      <c r="H8" s="123">
         <v>6</v>
       </c>
-      <c r="I8" s="166" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="167" t="s">
+      <c r="I8" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="166" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="166" t="s">
+      <c r="K8" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166" t="s">
+      <c r="M8" s="124"/>
+      <c r="N8" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="167" t="s">
+      <c r="O8" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="168" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="169">
+      <c r="P8" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="127">
         <v>6</v>
       </c>
-      <c r="R8" s="169" t="s">
+      <c r="R8" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="169" t="s">
+      <c r="S8" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="170" t="s">
+      <c r="T8" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="171" t="s">
+      <c r="U8" s="129" t="s">
         <v>45</v>
       </c>
       <c r="V8" s="50"/>
@@ -2548,13 +2514,15 @@
       <c r="U11" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="103" t="s">
+      <c r="V11" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W11" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="X11" s="42"/>
+      <c r="W11" s="83">
+        <v>42458</v>
+      </c>
+      <c r="X11" s="103">
+        <v>42458</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
@@ -2640,47 +2608,47 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="105">
+      <c r="H13" s="96">
         <v>11</v>
       </c>
-      <c r="I13" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="107" t="s">
+      <c r="I13" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="106" t="s">
+      <c r="K13" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106" t="s">
+      <c r="M13" s="97"/>
+      <c r="N13" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="107" t="s">
+      <c r="O13" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="109">
+      <c r="P13" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="100">
         <v>6</v>
       </c>
-      <c r="R13" s="109" t="s">
+      <c r="R13" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="109" t="s">
+      <c r="S13" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="110" t="s">
+      <c r="T13" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="111" t="s">
+      <c r="U13" s="102" t="s">
         <v>45</v>
       </c>
       <c r="V13" s="50" t="s">
@@ -2689,7 +2657,7 @@
       <c r="W13" s="83">
         <v>42457</v>
       </c>
-      <c r="X13" s="112">
+      <c r="X13" s="103">
         <v>42457</v>
       </c>
     </row>
@@ -2774,47 +2742,47 @@
         <v>55</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="121" t="s">
+      <c r="G15" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="113">
         <v>13</v>
       </c>
-      <c r="I15" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="124" t="s">
+      <c r="I15" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="123" t="s">
+      <c r="K15" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123" t="s">
+      <c r="M15" s="114"/>
+      <c r="N15" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="124" t="s">
+      <c r="O15" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="126">
+      <c r="P15" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="117">
         <v>6</v>
       </c>
-      <c r="R15" s="126" t="s">
+      <c r="R15" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="126" t="s">
+      <c r="S15" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="127" t="s">
+      <c r="T15" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="128" t="s">
+      <c r="U15" s="119" t="s">
         <v>45</v>
       </c>
       <c r="V15" s="50" t="s">
@@ -2823,7 +2791,7 @@
       <c r="W15" s="83">
         <v>42457</v>
       </c>
-      <c r="X15" s="112">
+      <c r="X15" s="103">
         <v>42457</v>
       </c>
     </row>
@@ -2908,51 +2876,51 @@
       <c r="F17" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="115" t="s">
-        <v>171</v>
+      <c r="G17" s="106" t="s">
+        <v>170</v>
       </c>
       <c r="H17" s="78">
         <v>15</v>
       </c>
-      <c r="I17" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="117" t="s">
+      <c r="I17" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="116" t="s">
+      <c r="K17" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116" t="s">
+      <c r="M17" s="107"/>
+      <c r="N17" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="117" t="s">
+      <c r="O17" s="108" t="s">
         <v>97</v>
       </c>
       <c r="P17" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="118">
+      <c r="Q17" s="109">
         <v>6</v>
       </c>
-      <c r="R17" s="118" t="s">
+      <c r="R17" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="118" t="s">
+      <c r="S17" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="119" t="s">
+      <c r="T17" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="120" t="s">
+      <c r="U17" s="111" t="s">
         <v>45</v>
       </c>
       <c r="V17" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W17" s="83">
         <v>42457</v>
@@ -3022,7 +2990,7 @@
         <v>45</v>
       </c>
       <c r="V18" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W18" s="83">
         <v>42457</v>
@@ -3119,56 +3087,56 @@
       <c r="F20" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="104" t="s">
+      <c r="G20" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="105">
+      <c r="H20" s="96">
         <v>18</v>
       </c>
-      <c r="I20" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="107" t="s">
+      <c r="I20" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="106" t="s">
+      <c r="K20" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106" t="s">
+      <c r="M20" s="97"/>
+      <c r="N20" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="107" t="s">
+      <c r="O20" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="109">
+      <c r="P20" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="100">
         <v>6</v>
       </c>
-      <c r="R20" s="109" t="s">
+      <c r="R20" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="109" t="s">
+      <c r="S20" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="110" t="s">
+      <c r="T20" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="111" t="s">
+      <c r="U20" s="102" t="s">
         <v>45</v>
       </c>
       <c r="V20" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W20" s="83">
         <v>42457</v>
       </c>
-      <c r="X20" s="112">
+      <c r="X20" s="103">
         <v>42457</v>
       </c>
     </row>
@@ -3453,56 +3421,56 @@
         <v>55</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="122">
+      <c r="H25" s="113">
         <v>23</v>
       </c>
-      <c r="I25" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="124" t="s">
+      <c r="I25" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="123" t="s">
+      <c r="K25" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123" t="s">
+      <c r="M25" s="114"/>
+      <c r="N25" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="124" t="s">
+      <c r="O25" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="126">
+      <c r="P25" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="117">
         <v>6</v>
       </c>
-      <c r="R25" s="126" t="s">
+      <c r="R25" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="126" t="s">
+      <c r="S25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="127" t="s">
+      <c r="T25" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="128" t="s">
+      <c r="U25" s="119" t="s">
         <v>45</v>
       </c>
       <c r="V25" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W25" s="83">
         <v>42457</v>
       </c>
-      <c r="X25" s="112">
+      <c r="X25" s="103">
         <v>42457</v>
       </c>
     </row>
@@ -3699,56 +3667,56 @@
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="104" t="s">
+      <c r="G29" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="105">
-        <v>27</v>
-      </c>
-      <c r="I29" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="107" t="s">
+      <c r="H29" s="96">
+        <v>27</v>
+      </c>
+      <c r="I29" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="K29" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="106" t="s">
+      <c r="K29" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106" t="s">
+      <c r="M29" s="97"/>
+      <c r="N29" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="107" t="s">
+      <c r="O29" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="109">
+      <c r="P29" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="100">
         <v>6</v>
       </c>
-      <c r="R29" s="109" t="s">
+      <c r="R29" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="S29" s="109" t="s">
+      <c r="S29" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="110" t="s">
+      <c r="T29" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="U29" s="111" t="s">
+      <c r="U29" s="102" t="s">
         <v>45</v>
       </c>
       <c r="V29" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W29" s="83">
         <v>42458</v>
       </c>
-      <c r="X29" s="112">
+      <c r="X29" s="103">
         <v>42458</v>
       </c>
     </row>
@@ -3767,56 +3735,56 @@
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="121" t="s">
+      <c r="G30" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="122">
+      <c r="H30" s="113">
         <v>28</v>
       </c>
-      <c r="I30" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="124" t="s">
+      <c r="I30" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="123" t="s">
+      <c r="K30" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123" t="s">
+      <c r="M30" s="114"/>
+      <c r="N30" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="O30" s="124" t="s">
+      <c r="O30" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="P30" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="126">
+      <c r="P30" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="117">
         <v>6</v>
       </c>
-      <c r="R30" s="126" t="s">
+      <c r="R30" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="126" t="s">
+      <c r="S30" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="126" t="s">
+      <c r="T30" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="U30" s="128" t="s">
+      <c r="U30" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="W30" s="163">
+      <c r="V30" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="W30" s="121">
         <v>42458</v>
       </c>
-      <c r="X30" s="162">
+      <c r="X30" s="120">
         <v>42458</v>
       </c>
     </row>
@@ -3835,12 +3803,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3857,6 +3819,12 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="172">
   <si>
     <t>Asignatura</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>Calcula moda, mediana y media</t>
+  </si>
+  <si>
+    <t>No tiene fichas de docente, no tiene estilo ni solicitud gráfica</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,19 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1232,7 +1229,40 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1257,83 +1287,9 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1352,31 +1308,31 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1402,33 +1358,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1501,6 +1430,58 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,104 +1807,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="157" t="s">
+      <c r="K1" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="143" t="s">
+      <c r="L1" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="132" t="s">
+      <c r="M1" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="133" t="s">
+      <c r="N1" s="141"/>
+      <c r="O1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="135" t="s">
+      <c r="P1" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="130" t="s">
+      <c r="Q1" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="137" t="s">
+      <c r="R1" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="130" t="s">
+      <c r="S1" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="159" t="s">
+      <c r="T1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="161" t="s">
+      <c r="U1" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="139" t="s">
+      <c r="V1" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="141" t="s">
+      <c r="W1" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="104"/>
+      <c r="X1" s="89"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="144"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="134"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="105" t="s">
+      <c r="O2" s="143"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="90" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2074,51 +2055,51 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="69">
         <v>3</v>
       </c>
-      <c r="I5" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="80" t="s">
+      <c r="I5" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="79" t="s">
+      <c r="K5" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="109">
+      <c r="P5" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="94">
         <v>6</v>
       </c>
-      <c r="R5" s="109" t="s">
+      <c r="R5" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="T5" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="111" t="s">
+      <c r="U5" s="96" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="50"/>
-      <c r="W5" s="83">
+      <c r="W5" s="74">
         <v>42457</v>
       </c>
       <c r="X5" s="42" t="s">
@@ -2140,51 +2121,51 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="69">
         <v>4</v>
       </c>
-      <c r="I6" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="80" t="s">
+      <c r="I6" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="79" t="s">
+      <c r="K6" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79" t="s">
+      <c r="M6" s="70"/>
+      <c r="N6" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="109">
+      <c r="P6" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="94">
         <v>6</v>
       </c>
-      <c r="R6" s="109" t="s">
+      <c r="R6" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="109" t="s">
+      <c r="S6" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="110" t="s">
+      <c r="T6" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="111" t="s">
+      <c r="U6" s="96" t="s">
         <v>45</v>
       </c>
       <c r="V6" s="50"/>
-      <c r="W6" s="83">
+      <c r="W6" s="74">
         <v>42457</v>
       </c>
       <c r="X6" s="42" t="s">
@@ -2206,54 +2187,54 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="81">
         <v>5</v>
       </c>
-      <c r="I7" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="98" t="s">
+      <c r="I7" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="97" t="s">
+      <c r="K7" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97" t="s">
+      <c r="M7" s="82"/>
+      <c r="N7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="100">
+      <c r="P7" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="85">
         <v>6</v>
       </c>
-      <c r="R7" s="100" t="s">
+      <c r="R7" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="100" t="s">
+      <c r="S7" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="101" t="s">
+      <c r="T7" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="102" t="s">
+      <c r="U7" s="87" t="s">
         <v>45</v>
       </c>
       <c r="V7" s="50"/>
-      <c r="W7" s="83">
+      <c r="W7" s="74">
         <v>42457</v>
       </c>
-      <c r="X7" s="103">
+      <c r="X7" s="88">
         <v>42457</v>
       </c>
     </row>
@@ -2274,51 +2255,51 @@
         <v>55</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="123">
+      <c r="H8" s="108">
         <v>6</v>
       </c>
-      <c r="I8" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="125" t="s">
+      <c r="I8" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="124" t="s">
+      <c r="K8" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124" t="s">
+      <c r="M8" s="109"/>
+      <c r="N8" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="125" t="s">
+      <c r="O8" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="127">
+      <c r="P8" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="112">
         <v>6</v>
       </c>
-      <c r="R8" s="127" t="s">
+      <c r="R8" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="127" t="s">
+      <c r="S8" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="129" t="s">
+      <c r="U8" s="114" t="s">
         <v>45</v>
       </c>
       <c r="V8" s="50"/>
-      <c r="W8" s="83">
+      <c r="W8" s="74">
         <v>42458</v>
       </c>
       <c r="X8" s="42" t="s">
@@ -2340,51 +2321,51 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="76">
         <v>7</v>
       </c>
-      <c r="I9" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="92" t="s">
+      <c r="I9" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="91" t="s">
+      <c r="K9" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="92" t="s">
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="92">
+      <c r="P9" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="77">
         <v>9</v>
       </c>
-      <c r="R9" s="92" t="s">
+      <c r="R9" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="92" t="s">
+      <c r="S9" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="94" t="s">
+      <c r="U9" s="79" t="s">
         <v>36</v>
       </c>
       <c r="V9" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W9" s="83">
+      <c r="W9" s="74">
         <v>42457</v>
       </c>
       <c r="X9" s="42" t="s">
@@ -2409,52 +2390,55 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="149">
         <v>8</v>
       </c>
-      <c r="I10" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="71" t="s">
+      <c r="K10" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72" t="s">
+      <c r="N10" s="150"/>
+      <c r="O10" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="74">
+      <c r="P10" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="153">
         <v>6</v>
       </c>
-      <c r="R10" s="74" t="s">
+      <c r="R10" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="74" t="s">
+      <c r="S10" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="75" t="s">
+      <c r="T10" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="76" t="s">
+      <c r="U10" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="68"/>
+      <c r="V10" s="156"/>
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
+      <c r="Y10" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -2471,56 +2455,56 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="96">
+      <c r="H11" s="81">
         <v>9</v>
       </c>
-      <c r="I11" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="98" t="s">
+      <c r="I11" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="97" t="s">
+      <c r="K11" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97" t="s">
+      <c r="M11" s="82"/>
+      <c r="N11" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="98" t="s">
+      <c r="O11" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="100">
+      <c r="P11" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="85">
         <v>6</v>
       </c>
-      <c r="R11" s="100" t="s">
+      <c r="R11" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="100" t="s">
+      <c r="S11" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="101" t="s">
+      <c r="T11" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="U11" s="102" t="s">
+      <c r="U11" s="87" t="s">
         <v>45</v>
       </c>
       <c r="V11" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W11" s="83">
+      <c r="W11" s="74">
         <v>42458</v>
       </c>
-      <c r="X11" s="103">
+      <c r="X11" s="88">
         <v>42458</v>
       </c>
     </row>
@@ -2608,56 +2592,56 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="81">
         <v>11</v>
       </c>
-      <c r="I13" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="98" t="s">
+      <c r="I13" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="97" t="s">
+      <c r="K13" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97" t="s">
+      <c r="M13" s="82"/>
+      <c r="N13" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="98" t="s">
+      <c r="O13" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="100">
+      <c r="P13" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="85">
         <v>6</v>
       </c>
-      <c r="R13" s="100" t="s">
+      <c r="R13" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="100" t="s">
+      <c r="S13" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="101" t="s">
+      <c r="T13" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="102" t="s">
+      <c r="U13" s="87" t="s">
         <v>45</v>
       </c>
       <c r="V13" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W13" s="83">
+      <c r="W13" s="74">
         <v>42457</v>
       </c>
-      <c r="X13" s="103">
+      <c r="X13" s="88">
         <v>42457</v>
       </c>
     </row>
@@ -2742,56 +2726,56 @@
         <v>55</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="98">
         <v>13</v>
       </c>
-      <c r="I15" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="115" t="s">
+      <c r="I15" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="114" t="s">
+      <c r="K15" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="115" t="s">
+      <c r="O15" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="117">
+      <c r="P15" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="102">
         <v>6</v>
       </c>
-      <c r="R15" s="117" t="s">
+      <c r="R15" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="117" t="s">
+      <c r="S15" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="118" t="s">
+      <c r="T15" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="119" t="s">
+      <c r="U15" s="104" t="s">
         <v>45</v>
       </c>
       <c r="V15" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W15" s="83">
+      <c r="W15" s="74">
         <v>42457</v>
       </c>
-      <c r="X15" s="103">
+      <c r="X15" s="88">
         <v>42457</v>
       </c>
     </row>
@@ -2810,49 +2794,49 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="53">
         <v>14</v>
       </c>
-      <c r="I16" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="86" t="s">
+      <c r="I16" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="85" t="s">
+      <c r="K16" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="86">
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="55">
         <v>9</v>
       </c>
-      <c r="R16" s="86" t="s">
+      <c r="R16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="86" t="s">
+      <c r="S16" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="88" t="s">
+      <c r="U16" s="57" t="s">
         <v>36</v>
       </c>
       <c r="V16" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W16" s="89">
+      <c r="W16" s="63">
         <v>42456</v>
       </c>
       <c r="X16" s="42" t="s">
@@ -2876,53 +2860,53 @@
       <c r="F17" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="69">
         <v>15</v>
       </c>
-      <c r="I17" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="108" t="s">
+      <c r="I17" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="107" t="s">
+      <c r="K17" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107" t="s">
+      <c r="M17" s="92"/>
+      <c r="N17" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="108" t="s">
+      <c r="O17" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="109">
+      <c r="P17" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="94">
         <v>6</v>
       </c>
-      <c r="R17" s="109" t="s">
+      <c r="R17" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="109" t="s">
+      <c r="S17" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="110" t="s">
+      <c r="T17" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="111" t="s">
+      <c r="U17" s="96" t="s">
         <v>45</v>
       </c>
       <c r="V17" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W17" s="83">
+      <c r="W17" s="74">
         <v>42457</v>
       </c>
       <c r="X17" s="42" t="s">
@@ -2946,53 +2930,53 @@
       <c r="F18" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="69">
         <v>16</v>
       </c>
-      <c r="I18" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="80" t="s">
+      <c r="I18" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="79" t="s">
+      <c r="K18" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79" t="s">
+      <c r="M18" s="70"/>
+      <c r="N18" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="O18" s="80" t="s">
+      <c r="O18" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="80">
+      <c r="P18" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="71">
         <v>6</v>
       </c>
-      <c r="R18" s="80" t="s">
+      <c r="R18" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="80" t="s">
+      <c r="S18" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="80" t="s">
+      <c r="T18" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="U18" s="82" t="s">
+      <c r="U18" s="73" t="s">
         <v>45</v>
       </c>
       <c r="V18" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W18" s="83">
+      <c r="W18" s="74">
         <v>42457</v>
       </c>
       <c r="X18" s="42" t="s">
@@ -3016,45 +3000,45 @@
       <c r="F19" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="45">
         <v>17</v>
       </c>
-      <c r="I19" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="80" t="s">
+      <c r="I19" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="79" t="s">
+      <c r="K19" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="80" t="s">
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="P19" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="80">
+      <c r="P19" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="47">
         <v>9</v>
       </c>
-      <c r="R19" s="80" t="s">
+      <c r="R19" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="80" t="s">
+      <c r="S19" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="U19" s="82" t="s">
+      <c r="U19" s="49" t="s">
         <v>36</v>
       </c>
       <c r="V19" s="50" t="s">
@@ -3087,56 +3071,56 @@
       <c r="F20" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="81">
         <v>18</v>
       </c>
-      <c r="I20" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="98" t="s">
+      <c r="I20" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="97" t="s">
+      <c r="K20" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97" t="s">
+      <c r="M20" s="82"/>
+      <c r="N20" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="100">
+      <c r="P20" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="85">
         <v>6</v>
       </c>
-      <c r="R20" s="100" t="s">
+      <c r="R20" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="100" t="s">
+      <c r="S20" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="101" t="s">
+      <c r="T20" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="102" t="s">
+      <c r="U20" s="87" t="s">
         <v>45</v>
       </c>
       <c r="V20" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W20" s="83">
+      <c r="W20" s="74">
         <v>42457</v>
       </c>
-      <c r="X20" s="103">
+      <c r="X20" s="88">
         <v>42457</v>
       </c>
     </row>
@@ -3421,56 +3405,56 @@
         <v>55</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="113">
+      <c r="H25" s="98">
         <v>23</v>
       </c>
-      <c r="I25" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="115" t="s">
+      <c r="I25" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="114" t="s">
+      <c r="K25" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114" t="s">
+      <c r="M25" s="99"/>
+      <c r="N25" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="115" t="s">
+      <c r="O25" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="117">
+      <c r="P25" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="102">
         <v>6</v>
       </c>
-      <c r="R25" s="117" t="s">
+      <c r="R25" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="117" t="s">
+      <c r="S25" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="118" t="s">
+      <c r="T25" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="119" t="s">
+      <c r="U25" s="104" t="s">
         <v>45</v>
       </c>
       <c r="V25" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W25" s="83">
+      <c r="W25" s="74">
         <v>42457</v>
       </c>
-      <c r="X25" s="103">
+      <c r="X25" s="88">
         <v>42457</v>
       </c>
     </row>
@@ -3667,56 +3651,56 @@
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="96">
-        <v>27</v>
-      </c>
-      <c r="I29" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="98" t="s">
+      <c r="H29" s="81">
+        <v>27</v>
+      </c>
+      <c r="I29" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="K29" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="97" t="s">
+      <c r="K29" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97" t="s">
+      <c r="M29" s="82"/>
+      <c r="N29" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="98" t="s">
+      <c r="O29" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="100">
+      <c r="P29" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="85">
         <v>6</v>
       </c>
-      <c r="R29" s="100" t="s">
+      <c r="R29" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="S29" s="100" t="s">
+      <c r="S29" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="101" t="s">
+      <c r="T29" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="U29" s="102" t="s">
+      <c r="U29" s="87" t="s">
         <v>45</v>
       </c>
       <c r="V29" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W29" s="83">
+      <c r="W29" s="74">
         <v>42458</v>
       </c>
-      <c r="X29" s="103">
+      <c r="X29" s="88">
         <v>42458</v>
       </c>
     </row>
@@ -3735,56 +3719,56 @@
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="113">
+      <c r="H30" s="98">
         <v>28</v>
       </c>
-      <c r="I30" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="115" t="s">
+      <c r="I30" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="114" t="s">
+      <c r="K30" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114" t="s">
+      <c r="M30" s="99"/>
+      <c r="N30" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O30" s="115" t="s">
+      <c r="O30" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="P30" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="117">
+      <c r="P30" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="102">
         <v>6</v>
       </c>
-      <c r="R30" s="117" t="s">
+      <c r="R30" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="117" t="s">
+      <c r="S30" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="117" t="s">
+      <c r="T30" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="U30" s="119" t="s">
+      <c r="U30" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="105" t="s">
+      <c r="V30" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="W30" s="121">
+      <c r="W30" s="106">
         <v>42458</v>
       </c>
-      <c r="X30" s="120">
+      <c r="X30" s="105">
         <v>42458</v>
       </c>
     </row>
@@ -3803,6 +3787,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3819,12 +3809,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="173">
   <si>
     <t>Asignatura</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>No tiene fichas de docente, no tiene estilo ni solicitud gráfica</t>
+  </si>
+  <si>
+    <t>Josué arregle</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,12 +724,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1040,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1358,6 +1355,33 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,58 +1454,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,103 +1779,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="131" t="s">
+      <c r="J1" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="141" t="s">
+      <c r="M1" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="142" t="s">
+      <c r="N1" s="117"/>
+      <c r="O1" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="144" t="s">
+      <c r="P1" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="139" t="s">
+      <c r="Q1" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="146" t="s">
+      <c r="R1" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="139" t="s">
+      <c r="S1" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="135" t="s">
+      <c r="T1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="137" t="s">
+      <c r="U1" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="115" t="s">
+      <c r="V1" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="117" t="s">
+      <c r="W1" s="126" t="s">
         <v>150</v>
       </c>
       <c r="X1" s="89"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="120"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="129"/>
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="118"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="127"/>
       <c r="X2" s="90" t="s">
         <v>151</v>
       </c>
@@ -2375,7 +2347,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>22</v>
       </c>
@@ -2390,52 +2362,58 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="149">
+      <c r="H10" s="81">
         <v>8</v>
       </c>
-      <c r="I10" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="151" t="s">
+      <c r="I10" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="150" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="150" t="s">
+      <c r="K10" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="150" t="s">
+      <c r="M10" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="150"/>
-      <c r="O10" s="151" t="s">
+      <c r="N10" s="82"/>
+      <c r="O10" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="153">
+      <c r="P10" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="85">
         <v>6</v>
       </c>
-      <c r="R10" s="153" t="s">
+      <c r="R10" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="153" t="s">
+      <c r="S10" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="154" t="s">
+      <c r="T10" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="155" t="s">
+      <c r="U10" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="156"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
+      <c r="V10" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="W10" s="74">
+        <v>42460</v>
+      </c>
+      <c r="X10" s="88">
+        <v>42460</v>
+      </c>
       <c r="Y10" t="s">
         <v>171</v>
       </c>
@@ -3787,12 +3765,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3809,6 +3781,12 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3836,7 +3814,7 @@
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K27 I3:I30 P3:P30</xm:sqref>
+          <xm:sqref>K3:K27 P3:P30 I3:I30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion11/ESCALETA_MA_08_11_CO.xlsx
@@ -1037,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1241,25 +1241,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1330,30 +1312,77 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1382,77 +1411,33 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1751,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,104 +1764,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="J1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="128" t="s">
+      <c r="L1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="117" t="s">
+      <c r="M1" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="120" t="s">
+      <c r="P1" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="115" t="s">
+      <c r="Q1" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="R1" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="115" t="s">
+      <c r="S1" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="144" t="s">
+      <c r="T1" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="146" t="s">
+      <c r="U1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="124" t="s">
+      <c r="V1" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="126" t="s">
+      <c r="W1" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="89"/>
+      <c r="X1" s="83"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="129"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="105"/>
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="90" t="s">
+      <c r="O2" s="128"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="84" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2055,23 +2040,23 @@
       <c r="P5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="94">
+      <c r="Q5" s="88">
         <v>6</v>
       </c>
-      <c r="R5" s="94" t="s">
+      <c r="R5" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="94" t="s">
+      <c r="S5" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="95" t="s">
+      <c r="T5" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="96" t="s">
+      <c r="U5" s="90" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="50"/>
-      <c r="W5" s="74">
+      <c r="W5" s="73">
         <v>42457</v>
       </c>
       <c r="X5" s="42" t="s">
@@ -2093,51 +2078,51 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="45">
         <v>4</v>
       </c>
-      <c r="I6" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="71" t="s">
+      <c r="I6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="70" t="s">
+      <c r="K6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70" t="s">
+      <c r="M6" s="46"/>
+      <c r="N6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="94">
+      <c r="P6" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="61">
         <v>6</v>
       </c>
-      <c r="R6" s="94" t="s">
+      <c r="R6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="94" t="s">
+      <c r="S6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="95" t="s">
+      <c r="T6" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="62" t="s">
         <v>45</v>
       </c>
       <c r="V6" s="50"/>
-      <c r="W6" s="74">
+      <c r="W6" s="63">
         <v>42457</v>
       </c>
       <c r="X6" s="42" t="s">
@@ -2159,54 +2144,54 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="75">
         <v>5</v>
       </c>
-      <c r="I7" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="83" t="s">
+      <c r="I7" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="82" t="s">
+      <c r="K7" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="83" t="s">
+      <c r="O7" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="85">
+      <c r="P7" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="79">
         <v>6</v>
       </c>
-      <c r="R7" s="85" t="s">
+      <c r="R7" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="86" t="s">
+      <c r="T7" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="87" t="s">
+      <c r="U7" s="81" t="s">
         <v>45</v>
       </c>
       <c r="V7" s="50"/>
-      <c r="W7" s="74">
+      <c r="W7" s="63">
         <v>42457</v>
       </c>
-      <c r="X7" s="88">
+      <c r="X7" s="82">
         <v>42457</v>
       </c>
     </row>
@@ -2227,51 +2212,51 @@
         <v>55</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="136">
         <v>6</v>
       </c>
-      <c r="I8" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="110" t="s">
+      <c r="I8" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="109" t="s">
+      <c r="K8" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109" t="s">
+      <c r="M8" s="137"/>
+      <c r="N8" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="110" t="s">
+      <c r="O8" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="112">
+      <c r="P8" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="140">
         <v>6</v>
       </c>
-      <c r="R8" s="112" t="s">
+      <c r="R8" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="112" t="s">
+      <c r="S8" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="113" t="s">
+      <c r="T8" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="114" t="s">
+      <c r="U8" s="142" t="s">
         <v>45</v>
       </c>
       <c r="V8" s="50"/>
-      <c r="W8" s="74">
+      <c r="W8" s="63">
         <v>42458</v>
       </c>
       <c r="X8" s="42" t="s">
@@ -2293,51 +2278,51 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="53">
         <v>7</v>
       </c>
-      <c r="I9" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="77" t="s">
+      <c r="I9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="76" t="s">
+      <c r="K9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77" t="s">
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="77">
+      <c r="P9" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="55">
         <v>9</v>
       </c>
-      <c r="R9" s="77" t="s">
+      <c r="R9" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="77" t="s">
+      <c r="S9" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="79" t="s">
+      <c r="U9" s="57" t="s">
         <v>36</v>
       </c>
       <c r="V9" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="W9" s="74">
+      <c r="W9" s="63">
         <v>42457</v>
       </c>
       <c r="X9" s="42" t="s">
@@ -2362,56 +2347,56 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="75">
         <v>8</v>
       </c>
-      <c r="I10" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="83" t="s">
+      <c r="I10" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="82" t="s">
+      <c r="K10" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="M10" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="83" t="s">
+      <c r="N10" s="76"/>
+      <c r="O10" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="85">
+      <c r="P10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="79">
         <v>6</v>
       </c>
-      <c r="R10" s="85" t="s">
+      <c r="R10" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="85" t="s">
+      <c r="S10" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="86" t="s">
+      <c r="T10" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="87" t="s">
+      <c r="U10" s="81" t="s">
         <v>72</v>
       </c>
       <c r="V10" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="W10" s="74">
+      <c r="W10" s="73">
         <v>42460</v>
       </c>
-      <c r="X10" s="88">
+      <c r="X10" s="82">
         <v>42460</v>
       </c>
       <c r="Y10" t="s">
@@ -2433,56 +2418,56 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="75">
         <v>9</v>
       </c>
-      <c r="I11" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="83" t="s">
+      <c r="I11" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="82" t="s">
+      <c r="K11" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82" t="s">
+      <c r="M11" s="76"/>
+      <c r="N11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="85">
+      <c r="P11" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="79">
         <v>6</v>
       </c>
-      <c r="R11" s="85" t="s">
+      <c r="R11" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="85" t="s">
+      <c r="S11" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="86" t="s">
+      <c r="T11" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="U11" s="87" t="s">
+      <c r="U11" s="81" t="s">
         <v>45</v>
       </c>
       <c r="V11" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W11" s="74">
+      <c r="W11" s="73">
         <v>42458</v>
       </c>
-      <c r="X11" s="88">
+      <c r="X11" s="82">
         <v>42458</v>
       </c>
     </row>
@@ -2570,56 +2555,56 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="75">
         <v>11</v>
       </c>
-      <c r="I13" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="83" t="s">
+      <c r="I13" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="82" t="s">
+      <c r="K13" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82" t="s">
+      <c r="M13" s="76"/>
+      <c r="N13" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="85">
+      <c r="P13" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="79">
         <v>6</v>
       </c>
-      <c r="R13" s="85" t="s">
+      <c r="R13" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="85" t="s">
+      <c r="S13" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="86" t="s">
+      <c r="T13" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="87" t="s">
+      <c r="U13" s="81" t="s">
         <v>45</v>
       </c>
       <c r="V13" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W13" s="74">
+      <c r="W13" s="63">
         <v>42457</v>
       </c>
-      <c r="X13" s="88">
+      <c r="X13" s="82">
         <v>42457</v>
       </c>
     </row>
@@ -2704,56 +2689,56 @@
         <v>55</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="92">
         <v>13</v>
       </c>
-      <c r="I15" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="100" t="s">
+      <c r="I15" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="99" t="s">
+      <c r="K15" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99" t="s">
+      <c r="M15" s="93"/>
+      <c r="N15" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="100" t="s">
+      <c r="O15" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="102">
+      <c r="P15" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="96">
         <v>6</v>
       </c>
-      <c r="R15" s="102" t="s">
+      <c r="R15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="102" t="s">
+      <c r="S15" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="103" t="s">
+      <c r="T15" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="104" t="s">
+      <c r="U15" s="98" t="s">
         <v>45</v>
       </c>
       <c r="V15" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="W15" s="74">
+      <c r="W15" s="63">
         <v>42457</v>
       </c>
-      <c r="X15" s="88">
+      <c r="X15" s="82">
         <v>42457</v>
       </c>
     </row>
@@ -2838,53 +2823,53 @@
       <c r="F17" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="91" t="s">
+      <c r="G17" s="85" t="s">
         <v>170</v>
       </c>
       <c r="H17" s="69">
         <v>15</v>
       </c>
-      <c r="I17" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="93" t="s">
+      <c r="I17" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="92" t="s">
+      <c r="K17" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92" t="s">
+      <c r="M17" s="86"/>
+      <c r="N17" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="93" t="s">
+      <c r="O17" s="87" t="s">
         <v>97</v>
       </c>
       <c r="P17" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="94">
+      <c r="Q17" s="88">
         <v>6</v>
       </c>
-      <c r="R17" s="94" t="s">
+      <c r="R17" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="94" t="s">
+      <c r="S17" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="95" t="s">
+      <c r="T17" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="96" t="s">
+      <c r="U17" s="90" t="s">
         <v>45</v>
       </c>
       <c r="V17" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W17" s="74">
+      <c r="W17" s="73">
         <v>42457</v>
       </c>
       <c r="X17" s="42" t="s">
@@ -2908,53 +2893,53 @@
       <c r="F18" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="45">
         <v>16</v>
       </c>
-      <c r="I18" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="71" t="s">
+      <c r="I18" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="70" t="s">
+      <c r="K18" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70" t="s">
+      <c r="M18" s="46"/>
+      <c r="N18" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="O18" s="71" t="s">
+      <c r="O18" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="71">
+      <c r="P18" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="47">
         <v>6</v>
       </c>
-      <c r="R18" s="71" t="s">
+      <c r="R18" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="71" t="s">
+      <c r="S18" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="71" t="s">
+      <c r="T18" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="U18" s="73" t="s">
+      <c r="U18" s="49" t="s">
         <v>45</v>
       </c>
       <c r="V18" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W18" s="74">
+      <c r="W18" s="63">
         <v>42457</v>
       </c>
       <c r="X18" s="42" t="s">
@@ -3049,56 +3034,56 @@
       <c r="F20" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="75">
         <v>18</v>
       </c>
-      <c r="I20" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="83" t="s">
+      <c r="I20" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="82" t="s">
+      <c r="K20" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82" t="s">
+      <c r="M20" s="76"/>
+      <c r="N20" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="83" t="s">
+      <c r="O20" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="85">
+      <c r="P20" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="79">
         <v>6</v>
       </c>
-      <c r="R20" s="85" t="s">
+      <c r="R20" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="85" t="s">
+      <c r="S20" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="86" t="s">
+      <c r="T20" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="87" t="s">
+      <c r="U20" s="81" t="s">
         <v>45</v>
       </c>
       <c r="V20" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W20" s="74">
+      <c r="W20" s="63">
         <v>42457</v>
       </c>
-      <c r="X20" s="88">
+      <c r="X20" s="82">
         <v>42457</v>
       </c>
     </row>
@@ -3383,56 +3368,56 @@
         <v>55</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="97" t="s">
+      <c r="G25" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="92">
         <v>23</v>
       </c>
-      <c r="I25" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="100" t="s">
+      <c r="I25" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="99" t="s">
+      <c r="K25" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99" t="s">
+      <c r="M25" s="93"/>
+      <c r="N25" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="100" t="s">
+      <c r="O25" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="102">
+      <c r="P25" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="96">
         <v>6</v>
       </c>
-      <c r="R25" s="102" t="s">
+      <c r="R25" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="102" t="s">
+      <c r="S25" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="103" t="s">
+      <c r="T25" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="U25" s="104" t="s">
+      <c r="U25" s="98" t="s">
         <v>45</v>
       </c>
       <c r="V25" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W25" s="74">
+      <c r="W25" s="63">
         <v>42457</v>
       </c>
-      <c r="X25" s="88">
+      <c r="X25" s="82">
         <v>42457</v>
       </c>
     </row>
@@ -3629,56 +3614,56 @@
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="81">
-        <v>27</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="83" t="s">
+      <c r="H29" s="75">
+        <v>27</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="K29" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="82" t="s">
+      <c r="K29" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82" t="s">
+      <c r="M29" s="76"/>
+      <c r="N29" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="83" t="s">
+      <c r="O29" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="85">
+      <c r="P29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="79">
         <v>6</v>
       </c>
-      <c r="R29" s="85" t="s">
+      <c r="R29" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="S29" s="85" t="s">
+      <c r="S29" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="86" t="s">
+      <c r="T29" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="U29" s="87" t="s">
+      <c r="U29" s="81" t="s">
         <v>45</v>
       </c>
       <c r="V29" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="W29" s="74">
+      <c r="W29" s="63">
         <v>42458</v>
       </c>
-      <c r="X29" s="88">
+      <c r="X29" s="82">
         <v>42458</v>
       </c>
     </row>
@@ -3697,56 +3682,56 @@
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="97" t="s">
+      <c r="G30" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="98">
+      <c r="H30" s="92">
         <v>28</v>
       </c>
-      <c r="I30" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="100" t="s">
+      <c r="I30" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="99" t="s">
+      <c r="K30" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99" t="s">
+      <c r="M30" s="93"/>
+      <c r="N30" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="O30" s="100" t="s">
+      <c r="O30" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="P30" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="102">
+      <c r="P30" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="96">
         <v>6</v>
       </c>
-      <c r="R30" s="102" t="s">
+      <c r="R30" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="102" t="s">
+      <c r="S30" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="102" t="s">
+      <c r="T30" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="U30" s="104" t="s">
+      <c r="U30" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="90" t="s">
+      <c r="V30" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="W30" s="106">
+      <c r="W30" s="134">
         <v>42458</v>
       </c>
-      <c r="X30" s="105">
+      <c r="X30" s="99">
         <v>42458</v>
       </c>
     </row>
@@ -3765,6 +3750,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="L1:L2"/>
@@ -3781,12 +3772,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
